--- a/CashFlow/BMRN_cashflow.xlsx
+++ b/CashFlow/BMRN_cashflow.xlsx
@@ -67,52 +67,53 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:AN30"/>
+  <dimension ref="A1:AO30"/>
   <sheetViews>
     <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" width="28.6"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" width="15.400000000000002"/>
-    <col min="3" max="3" bestFit="1" customWidth="1" width="15.400000000000002"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" width="14.3"/>
+    <col min="3" max="3" bestFit="1" customWidth="1" width="14.3"/>
     <col min="4" max="4" bestFit="1" customWidth="1" width="15.400000000000002"/>
-    <col min="5" max="5" bestFit="1" customWidth="1" width="15.400000000000002"/>
+    <col min="5" max="5" bestFit="1" customWidth="1" width="14.3"/>
     <col min="6" max="6" bestFit="1" customWidth="1" width="14.3"/>
     <col min="7" max="7" bestFit="1" customWidth="1" width="14.3"/>
     <col min="8" max="8" bestFit="1" customWidth="1" width="14.3"/>
     <col min="9" max="9" bestFit="1" customWidth="1" width="14.3"/>
     <col min="10" max="10" bestFit="1" customWidth="1" width="14.3"/>
-    <col min="11" max="11" bestFit="1" customWidth="1" width="15.400000000000002"/>
-    <col min="12" max="12" bestFit="1" customWidth="1" width="14.3"/>
+    <col min="11" max="11" bestFit="1" customWidth="1" width="14.3"/>
+    <col min="12" max="12" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="13" max="13" bestFit="1" customWidth="1" width="14.3"/>
-    <col min="14" max="14" bestFit="1" customWidth="1" width="15.400000000000002"/>
+    <col min="14" max="14" bestFit="1" customWidth="1" width="14.3"/>
     <col min="15" max="15" bestFit="1" customWidth="1" width="15.400000000000002"/>
-    <col min="16" max="16" bestFit="1" customWidth="1" width="14.3"/>
+    <col min="16" max="16" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="17" max="17" bestFit="1" customWidth="1" width="14.3"/>
     <col min="18" max="18" bestFit="1" customWidth="1" width="14.3"/>
     <col min="19" max="19" bestFit="1" customWidth="1" width="14.3"/>
     <col min="20" max="20" bestFit="1" customWidth="1" width="14.3"/>
     <col min="21" max="21" bestFit="1" customWidth="1" width="14.3"/>
-    <col min="22" max="22" bestFit="1" customWidth="1" width="15.400000000000002"/>
-    <col min="23" max="23" bestFit="1" customWidth="1" width="14.3"/>
+    <col min="22" max="22" bestFit="1" customWidth="1" width="14.3"/>
+    <col min="23" max="23" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="24" max="24" bestFit="1" customWidth="1" width="14.3"/>
-    <col min="25" max="25" bestFit="1" customWidth="1" width="15.400000000000002"/>
-    <col min="26" max="26" bestFit="1" customWidth="1" width="14.3"/>
+    <col min="25" max="25" bestFit="1" customWidth="1" width="14.3"/>
+    <col min="26" max="26" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="27" max="27" bestFit="1" customWidth="1" width="14.3"/>
     <col min="28" max="28" bestFit="1" customWidth="1" width="14.3"/>
-    <col min="29" max="29" bestFit="1" customWidth="1" width="15.400000000000002"/>
-    <col min="30" max="30" bestFit="1" customWidth="1" width="14.3"/>
+    <col min="29" max="29" bestFit="1" customWidth="1" width="14.3"/>
+    <col min="30" max="30" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="31" max="31" bestFit="1" customWidth="1" width="14.3"/>
     <col min="32" max="32" bestFit="1" customWidth="1" width="14.3"/>
     <col min="33" max="33" bestFit="1" customWidth="1" width="14.3"/>
     <col min="34" max="34" bestFit="1" customWidth="1" width="14.3"/>
     <col min="35" max="35" bestFit="1" customWidth="1" width="14.3"/>
     <col min="36" max="36" bestFit="1" customWidth="1" width="14.3"/>
-    <col min="37" max="37" bestFit="1" customWidth="1" width="13.200000000000001"/>
+    <col min="37" max="37" bestFit="1" customWidth="1" width="14.3"/>
     <col min="38" max="38" bestFit="1" customWidth="1" width="13.200000000000001"/>
     <col min="39" max="39" bestFit="1" customWidth="1" width="13.200000000000001"/>
-    <col min="40" max="40" bestFit="1" customWidth="1" width="14.3"/>
+    <col min="40" max="40" bestFit="1" customWidth="1" width="13.200000000000001"/>
+    <col min="41" max="41" bestFit="1" customWidth="1" width="14.3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -122,120 +123,123 @@
         </is>
       </c>
       <c r="B1" s="2">
+        <v>44286.0</v>
+      </c>
+      <c r="C1" s="2">
         <v>44196.0</v>
       </c>
-      <c r="C1" s="2">
+      <c r="D1" s="2">
         <v>44104.0</v>
       </c>
-      <c r="D1" s="2">
+      <c r="E1" s="2">
         <v>44012.0</v>
       </c>
-      <c r="E1" s="2">
+      <c r="F1" s="2">
         <v>43921.0</v>
       </c>
-      <c r="F1" s="2">
+      <c r="G1" s="2">
         <v>43830.0</v>
       </c>
-      <c r="G1" s="2">
+      <c r="H1" s="2">
         <v>43738.0</v>
       </c>
-      <c r="H1" s="2">
+      <c r="I1" s="2">
         <v>43646.0</v>
       </c>
-      <c r="I1" s="2">
+      <c r="J1" s="2">
         <v>43555.0</v>
       </c>
-      <c r="J1" s="2">
+      <c r="K1" s="2">
         <v>43465.0</v>
       </c>
-      <c r="K1" s="2">
+      <c r="L1" s="2">
         <v>43373.0</v>
       </c>
-      <c r="L1" s="2">
+      <c r="M1" s="2">
         <v>43281.0</v>
       </c>
-      <c r="M1" s="2">
+      <c r="N1" s="2">
         <v>43190.0</v>
       </c>
-      <c r="N1" s="2">
+      <c r="O1" s="2">
         <v>43100.0</v>
       </c>
-      <c r="O1" s="2">
+      <c r="P1" s="2">
         <v>43008.0</v>
       </c>
-      <c r="P1" s="2">
+      <c r="Q1" s="2">
         <v>42916.0</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="R1" s="2">
         <v>42825.0</v>
       </c>
-      <c r="R1" s="2">
+      <c r="S1" s="2">
         <v>42735.0</v>
       </c>
-      <c r="S1" s="2">
+      <c r="T1" s="2">
         <v>42643.0</v>
       </c>
-      <c r="T1" s="2">
+      <c r="U1" s="2">
         <v>42551.0</v>
       </c>
-      <c r="U1" s="2">
+      <c r="V1" s="2">
         <v>42460.0</v>
       </c>
-      <c r="V1" s="2">
+      <c r="W1" s="2">
         <v>42369.0</v>
       </c>
-      <c r="W1" s="2">
+      <c r="X1" s="2">
         <v>42277.0</v>
       </c>
-      <c r="X1" s="2">
+      <c r="Y1" s="2">
         <v>42185.0</v>
       </c>
-      <c r="Y1" s="2">
+      <c r="Z1" s="2">
         <v>42094.0</v>
       </c>
-      <c r="Z1" s="2">
+      <c r="AA1" s="2">
         <v>42004.0</v>
       </c>
-      <c r="AA1" s="2">
+      <c r="AB1" s="2">
         <v>41912.0</v>
       </c>
-      <c r="AB1" s="2">
+      <c r="AC1" s="2">
         <v>41820.0</v>
       </c>
-      <c r="AC1" s="2">
+      <c r="AD1" s="2">
         <v>41729.0</v>
       </c>
-      <c r="AD1" s="2">
+      <c r="AE1" s="2">
         <v>41639.0</v>
       </c>
-      <c r="AE1" s="2">
+      <c r="AF1" s="2">
         <v>41547.0</v>
       </c>
-      <c r="AF1" s="2">
+      <c r="AG1" s="2">
         <v>41455.0</v>
       </c>
-      <c r="AG1" s="2">
+      <c r="AH1" s="2">
         <v>41364.0</v>
       </c>
-      <c r="AH1" s="2">
+      <c r="AI1" s="2">
         <v>41274.0</v>
       </c>
-      <c r="AI1" s="2">
+      <c r="AJ1" s="2">
         <v>41182.0</v>
       </c>
-      <c r="AJ1" s="2">
+      <c r="AK1" s="2">
         <v>41090.0</v>
       </c>
-      <c r="AK1" s="2">
+      <c r="AL1" s="2">
         <v>40999.0</v>
       </c>
-      <c r="AL1" s="2">
+      <c r="AM1" s="2">
         <v>40908.0</v>
       </c>
-      <c r="AM1" s="2">
+      <c r="AN1" s="2">
         <v>40816.0</v>
       </c>
-      <c r="AN1" s="2">
+      <c r="AO1" s="2">
         <v>40724.0</v>
       </c>
     </row>
@@ -246,120 +250,123 @@
         </is>
       </c>
       <c r="B2" s="0" t="n">
+        <v>795090000.0</v>
+      </c>
+      <c r="C2" s="0" t="n">
         <v>859100000.0</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="D2" s="0" t="n">
         <v>852025000.0</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="E2" s="0" t="n">
         <v>122258000.0</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="F2" s="0" t="n">
         <v>114006000.0</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="G2" s="0" t="n">
         <v>-23848000.0</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="H2" s="0" t="n">
         <v>-42522000.0</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="I2" s="0" t="n">
         <v>-110178000.0</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="J2" s="0" t="n">
         <v>-89535000.0</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="K2" s="0" t="n">
         <v>-77211000.0</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="L2" s="0" t="n">
         <v>-124953000.0</v>
       </c>
-      <c r="L2" s="0" t="n">
+      <c r="M2" s="0" t="n">
         <v>-124860000.0</v>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="N2" s="0" t="n">
         <v>-144901000.0</v>
       </c>
-      <c r="N2" s="0" t="n">
+      <c r="O2" s="0" t="n">
         <v>-117042000.0</v>
       </c>
-      <c r="O2" s="0" t="n">
+      <c r="P2" s="0" t="n">
         <v>-156370000.0</v>
       </c>
-      <c r="P2" s="0" t="n">
+      <c r="Q2" s="0" t="n">
         <v>-181268000.0</v>
       </c>
-      <c r="Q2" s="0" t="n">
+      <c r="R2" s="0" t="n">
         <v>-563449000.0</v>
       </c>
-      <c r="R2" s="0" t="n">
+      <c r="S2" s="0" t="n">
         <v>-630210000.0</v>
       </c>
-      <c r="S2" s="0" t="n">
+      <c r="T2" s="0" t="n">
         <v>-470873000.0</v>
       </c>
-      <c r="T2" s="0" t="n">
+      <c r="U2" s="0" t="n">
         <v>-524374000.0</v>
       </c>
-      <c r="U2" s="0" t="n">
+      <c r="V2" s="0" t="n">
         <v>-187349000.0</v>
       </c>
-      <c r="V2" s="0" t="n">
+      <c r="W2" s="0" t="n">
         <v>-171799000.0</v>
       </c>
-      <c r="W2" s="0" t="n">
+      <c r="X2" s="0" t="n">
         <v>-310213000.0</v>
       </c>
-      <c r="X2" s="0" t="n">
+      <c r="Y2" s="0" t="n">
         <v>-211842000.0</v>
       </c>
-      <c r="Y2" s="0" t="n">
+      <c r="Z2" s="0" t="n">
         <v>-163355000.0</v>
       </c>
-      <c r="Z2" s="0" t="n">
+      <c r="AA2" s="0" t="n">
         <v>-133969000.0</v>
       </c>
-      <c r="AA2" s="0" t="n">
+      <c r="AB2" s="0" t="n">
         <v>-126162000.0</v>
       </c>
-      <c r="AB2" s="0" t="n">
+      <c r="AC2" s="0" t="n">
         <v>-186627000.0</v>
       </c>
-      <c r="AC2" s="0" t="n">
+      <c r="AD2" s="0" t="n">
         <v>-174658000.0</v>
       </c>
-      <c r="AD2" s="0" t="n">
+      <c r="AE2" s="0" t="n">
         <v>-176353000.0</v>
       </c>
-      <c r="AE2" s="0" t="n">
+      <c r="AF2" s="0" t="n">
         <v>-167375000.0</v>
       </c>
-      <c r="AF2" s="0" t="n">
+      <c r="AG2" s="0" t="n">
         <v>-119712000.0</v>
       </c>
-      <c r="AG2" s="0" t="n">
+      <c r="AH2" s="0" t="n">
         <v>-130185000.0</v>
       </c>
-      <c r="AH2" s="0" t="n">
+      <c r="AI2" s="0" t="n">
         <v>-114347000.0</v>
       </c>
-      <c r="AI2" s="0" t="n">
+      <c r="AJ2" s="0" t="n">
         <v>-88070000.0</v>
       </c>
-      <c r="AJ2" s="0" t="n">
+      <c r="AK2" s="0" t="n">
         <v>-100366000.0</v>
       </c>
-      <c r="AK2" s="0" t="n">
+      <c r="AL2" s="0" t="n">
         <v>-73437000.0</v>
       </c>
-      <c r="AL2" s="0" t="n">
+      <c r="AM2" s="0" t="n">
         <v>-53836000.0</v>
       </c>
-      <c r="AM2" s="0" t="n">
+      <c r="AN2" s="0" t="n">
         <v>-39290000.0</v>
       </c>
-      <c r="AN2" s="0" t="n">
+      <c r="AO2" s="0" t="n">
         <v>195697000.0</v>
       </c>
     </row>
@@ -370,120 +377,123 @@
         </is>
       </c>
       <c r="B3" s="0" t="n">
+        <v>107864000.0</v>
+      </c>
+      <c r="C3" s="0" t="n">
         <v>105172000.0</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="D3" s="0" t="n">
         <v>103604000.0</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="E3" s="0" t="n">
         <v>107322000.0</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="F3" s="0" t="n">
         <v>107831000.0</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="G3" s="0" t="n">
         <v>103403000.0</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="H3" s="0" t="n">
         <v>101918000.0</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="I3" s="0" t="n">
         <v>98721000.0</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="J3" s="0" t="n">
         <v>93171000.0</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="K3" s="0" t="n">
         <v>96029000.0</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="L3" s="0" t="n">
         <v>101303000.0</v>
       </c>
-      <c r="L3" s="0" t="n">
+      <c r="M3" s="0" t="n">
         <v>95683000.0</v>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="N3" s="0" t="n">
         <v>95260000.0</v>
       </c>
-      <c r="N3" s="0" t="n">
+      <c r="O3" s="0" t="n">
         <v>90938000.0</v>
       </c>
-      <c r="O3" s="0" t="n">
+      <c r="P3" s="0" t="n">
         <v>82085000.0</v>
       </c>
-      <c r="P3" s="0" t="n">
+      <c r="Q3" s="0" t="n">
         <v>90117000.0</v>
       </c>
-      <c r="Q3" s="0" t="n">
+      <c r="R3" s="0" t="n">
         <v>99249000.0</v>
       </c>
-      <c r="R3" s="0" t="n">
+      <c r="S3" s="0" t="n">
         <v>98212000.0</v>
       </c>
-      <c r="S3" s="0" t="n">
+      <c r="T3" s="0" t="n">
         <v>90933000.0</v>
       </c>
-      <c r="T3" s="0" t="n">
+      <c r="U3" s="0" t="n">
         <v>74079000.0</v>
       </c>
-      <c r="U3" s="0" t="n">
+      <c r="V3" s="0" t="n">
         <v>57165000.0</v>
       </c>
-      <c r="V3" s="0" t="n">
+      <c r="W3" s="0" t="n">
         <v>49364000.0</v>
       </c>
-      <c r="W3" s="0" t="n">
+      <c r="X3" s="0" t="n">
         <v>43346000.0</v>
       </c>
-      <c r="X3" s="0" t="n">
+      <c r="Y3" s="0" t="n">
         <v>46865000.0</v>
       </c>
-      <c r="Y3" s="0" t="n">
+      <c r="Z3" s="0" t="n">
         <v>50412000.0</v>
       </c>
-      <c r="Z3" s="0" t="n">
+      <c r="AA3" s="0" t="n">
         <v>53082000.0</v>
       </c>
-      <c r="AA3" s="0" t="n">
+      <c r="AB3" s="0" t="n">
         <v>45889000.0</v>
       </c>
-      <c r="AB3" s="0" t="n">
+      <c r="AC3" s="0" t="n">
         <v>44289000.0</v>
       </c>
-      <c r="AC3" s="0" t="n">
+      <c r="AD3" s="0" t="n">
         <v>43013000.0</v>
       </c>
-      <c r="AD3" s="0" t="n">
+      <c r="AE3" s="0" t="n">
         <v>41913000.0</v>
       </c>
-      <c r="AE3" s="0" t="n">
+      <c r="AF3" s="0" t="n">
         <v>53968000.0</v>
       </c>
-      <c r="AF3" s="0" t="n">
+      <c r="AG3" s="0" t="n">
         <v>52340000.0</v>
       </c>
-      <c r="AG3" s="0" t="n">
+      <c r="AH3" s="0" t="n">
         <v>50158000.0</v>
       </c>
-      <c r="AH3" s="0" t="n">
+      <c r="AI3" s="0" t="n">
         <v>48804000.0</v>
       </c>
-      <c r="AI3" s="0" t="n">
+      <c r="AJ3" s="0" t="n">
         <v>46074000.0</v>
       </c>
-      <c r="AJ3" s="0" t="n">
+      <c r="AK3" s="0" t="n">
         <v>43422000.0</v>
       </c>
-      <c r="AK3" s="0" t="n">
+      <c r="AL3" s="0" t="n">
         <v>40867000.0</v>
       </c>
-      <c r="AL3" s="0" t="n">
+      <c r="AM3" s="0" t="n">
         <v>39082000.0</v>
       </c>
-      <c r="AM3" s="0" t="n">
+      <c r="AN3" s="0" t="n">
         <v>38399000.0</v>
       </c>
-      <c r="AN3" s="0" t="n">
+      <c r="AO3" s="0" t="n">
         <v>36871000.0</v>
       </c>
     </row>
@@ -494,120 +504,123 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
+        <v>-607574900.0</v>
+      </c>
+      <c r="C4" s="0" t="n">
         <v>-655056900.0</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="D4" s="0" t="n">
         <v>-663259900.0</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="E4" s="0" t="n">
         <v>38536000.0</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="F4" s="0" t="n">
         <v>23347000.0</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="G4" s="0" t="n">
         <v>69902000.0</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="H4" s="0" t="n">
         <v>27595000.0</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="I4" s="0" t="n">
         <v>78534000.0</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="J4" s="0" t="n">
         <v>65968000.0</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="K4" s="0" t="n">
         <v>50810000.0</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="L4" s="0" t="n">
         <v>93860000.0</v>
       </c>
-      <c r="L4" s="0" t="n">
+      <c r="M4" s="0" t="n">
         <v>85565000.0</v>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="N4" s="0" t="n">
         <v>129112000.0</v>
       </c>
-      <c r="N4" s="0" t="n">
+      <c r="O4" s="0" t="n">
         <v>111310000.0</v>
       </c>
-      <c r="O4" s="0" t="n">
+      <c r="P4" s="0" t="n">
         <v>132829000.0</v>
       </c>
-      <c r="P4" s="0" t="n">
+      <c r="Q4" s="0" t="n">
         <v>108314000.0</v>
       </c>
-      <c r="Q4" s="0" t="n">
+      <c r="R4" s="0" t="n">
         <v>476683000.0</v>
       </c>
-      <c r="R4" s="0" t="n">
+      <c r="S4" s="0" t="n">
         <v>464437000.0</v>
       </c>
-      <c r="S4" s="0" t="n">
+      <c r="T4" s="0" t="n">
         <v>165850000.0</v>
       </c>
-      <c r="T4" s="0" t="n">
+      <c r="U4" s="0" t="n">
         <v>213363000.0</v>
       </c>
-      <c r="U4" s="0" t="n">
+      <c r="V4" s="0" t="n">
         <v>-146145000.0</v>
       </c>
-      <c r="V4" s="0" t="n">
+      <c r="W4" s="0" t="n">
         <v>-143396000.0</v>
       </c>
-      <c r="W4" s="0" t="n">
+      <c r="X4" s="0" t="n">
         <v>149889000.0</v>
       </c>
-      <c r="X4" s="0" t="n">
+      <c r="Y4" s="0" t="n">
         <v>44410000.0</v>
       </c>
-      <c r="Y4" s="0" t="n">
+      <c r="Z4" s="0" t="n">
         <v>17718000.0</v>
       </c>
-      <c r="Z4" s="0" t="n">
+      <c r="AA4" s="0" t="n">
         <v>26349000.0</v>
       </c>
-      <c r="AA4" s="0" t="n">
+      <c r="AB4" s="0" t="n">
         <v>42113000.0</v>
       </c>
-      <c r="AB4" s="0" t="n">
+      <c r="AC4" s="0" t="n">
         <v>105521000.0</v>
       </c>
-      <c r="AC4" s="0" t="n">
+      <c r="AD4" s="0" t="n">
         <v>82906000.0</v>
       </c>
-      <c r="AD4" s="0" t="n">
+      <c r="AE4" s="0" t="n">
         <v>85205000.0</v>
       </c>
-      <c r="AE4" s="0" t="n">
+      <c r="AF4" s="0" t="n">
         <v>71250000.0</v>
       </c>
-      <c r="AF4" s="0" t="n">
+      <c r="AG4" s="0" t="n">
         <v>53025000.0</v>
       </c>
-      <c r="AG4" s="0" t="n">
+      <c r="AH4" s="0" t="n">
         <v>64626000.0</v>
       </c>
-      <c r="AH4" s="0" t="n">
+      <c r="AI4" s="0" t="n">
         <v>50093000.0</v>
       </c>
-      <c r="AI4" s="0" t="n">
+      <c r="AJ4" s="0" t="n">
         <v>36340000.0</v>
       </c>
-      <c r="AJ4" s="0" t="n">
+      <c r="AK4" s="0" t="n">
         <v>56542000.0</v>
       </c>
-      <c r="AK4" s="0" t="n">
+      <c r="AL4" s="0" t="n">
         <v>57540000.0</v>
       </c>
-      <c r="AL4" s="0" t="n">
+      <c r="AM4" s="0" t="n">
         <v>58606000.0</v>
       </c>
-      <c r="AM4" s="0" t="n">
+      <c r="AN4" s="0" t="n">
         <v>61683000.0</v>
       </c>
-      <c r="AN4" s="0" t="n">
+      <c r="AO4" s="0" t="n">
         <v>-169392000.0</v>
       </c>
     </row>
@@ -618,120 +631,123 @@
         </is>
       </c>
       <c r="B5" s="0" t="n">
+        <v>13157000.0</v>
+      </c>
+      <c r="C5" s="0" t="n">
         <v>-59035000.0</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="D5" s="0" t="n">
         <v>-8964000.0</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="E5" s="0" t="n">
         <v>-14850000.0</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="F5" s="0" t="n">
         <v>-18060000.0</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="G5" s="0" t="n">
         <v>-37852000.0</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="H5" s="0" t="n">
         <v>-20193000.0</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="I5" s="0" t="n">
         <v>-7888000.0</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="J5" s="0" t="n">
         <v>-79707000.0</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="K5" s="0" t="n">
         <v>-54274000.0</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="L5" s="0" t="n">
         <v>-99542000.0</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="M5" s="0" t="n">
         <v>-85838000.0</v>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="N5" s="0" t="n">
         <v>-37462000.0</v>
       </c>
-      <c r="N5" s="0" t="n">
+      <c r="O5" s="0" t="n">
         <v>-25256000.0</v>
       </c>
-      <c r="O5" s="0" t="n">
+      <c r="P5" s="0" t="n">
         <v>-21058000.0</v>
       </c>
-      <c r="P5" s="0" t="n">
+      <c r="Q5" s="0" t="n">
         <v>-18067000.0</v>
       </c>
-      <c r="Q5" s="0" t="n">
+      <c r="R5" s="0" t="n">
         <v>-49490000.0</v>
       </c>
-      <c r="R5" s="0" t="n">
+      <c r="S5" s="0" t="n">
         <v>-51483000.0</v>
       </c>
-      <c r="S5" s="0" t="n">
+      <c r="T5" s="0" t="n">
         <v>-68536000.0</v>
       </c>
-      <c r="T5" s="0" t="n">
+      <c r="U5" s="0" t="n">
         <v>-29030000.0</v>
       </c>
-      <c r="U5" s="0" t="n">
+      <c r="V5" s="0" t="n">
         <v>-5622000.0</v>
       </c>
-      <c r="V5" s="0" t="n">
+      <c r="W5" s="0" t="n">
         <v>-16367000.0</v>
       </c>
-      <c r="W5" s="0" t="n">
+      <c r="X5" s="0" t="n">
         <v>-22323000.0</v>
       </c>
-      <c r="X5" s="0" t="n">
+      <c r="Y5" s="0" t="n">
         <v>-59154000.0</v>
       </c>
-      <c r="Y5" s="0" t="n">
+      <c r="Z5" s="0" t="n">
         <v>-60146000.0</v>
       </c>
-      <c r="Z5" s="0" t="n">
+      <c r="AA5" s="0" t="n">
         <v>-25951000.0</v>
       </c>
-      <c r="AA5" s="0" t="n">
+      <c r="AB5" s="0" t="n">
         <v>3457000.0</v>
       </c>
-      <c r="AB5" s="0" t="n">
+      <c r="AC5" s="0" t="n">
         <v>-7127000.0</v>
       </c>
-      <c r="AC5" s="0" t="n">
+      <c r="AD5" s="0" t="n">
         <v>9945000.0</v>
       </c>
-      <c r="AD5" s="0" t="n">
+      <c r="AE5" s="0" t="n">
         <v>-8740000.0</v>
       </c>
-      <c r="AE5" s="0" t="n">
+      <c r="AF5" s="0" t="n">
         <v>-7455000.0</v>
       </c>
-      <c r="AF5" s="0" t="n">
+      <c r="AG5" s="0" t="n">
         <v>-14313000.0</v>
       </c>
-      <c r="AG5" s="0" t="n">
+      <c r="AH5" s="0" t="n">
         <v>-14517000.0</v>
       </c>
-      <c r="AH5" s="0" t="n">
+      <c r="AI5" s="0" t="n">
         <v>-4227000.0</v>
       </c>
-      <c r="AI5" s="0" t="n">
+      <c r="AJ5" s="0" t="n">
         <v>-10426000.0</v>
       </c>
-      <c r="AJ5" s="0" t="n">
+      <c r="AK5" s="0" t="n">
         <v>5663000.0</v>
       </c>
-      <c r="AK5" s="0" t="n">
+      <c r="AL5" s="0" t="n">
         <v>177000.0</v>
       </c>
-      <c r="AL5" s="0" t="n">
+      <c r="AM5" s="0" t="n">
         <v>-18456000.0</v>
       </c>
-      <c r="AM5" s="0" t="n">
+      <c r="AN5" s="0" t="n">
         <v>-28323000.0</v>
       </c>
-      <c r="AN5" s="0" t="n">
+      <c r="AO5" s="0" t="n">
         <v>-28924000.0</v>
       </c>
     </row>
@@ -742,120 +758,123 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>2850000000.0</v>
+        <v>-46870000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>2831000000.0</v>
+        <v>-61151000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>2110548000.0</v>
+        <v>-128293000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>1331694000.0</v>
+        <v>-120733000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>627429000.0</v>
+        <v>-129995000.0</v>
       </c>
       <c r="G6" s="0" t="n">
+        <v>-107554000.0</v>
+      </c>
+      <c r="H6" s="0" t="n">
         <v>-66086000.0</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="I6" s="0" t="n">
         <v>-72359000.0</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="J6" s="0" t="n">
         <v>-32855000.0</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="K6" s="0" t="n">
         <v>-23747000.0</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="L6" s="0" t="n">
         <v>-26237000.0</v>
       </c>
-      <c r="L6" s="0" t="n">
+      <c r="M6" s="0" t="n">
         <v>-21028000.0</v>
       </c>
-      <c r="M6" s="0" t="n">
+      <c r="N6" s="0" t="n">
         <v>-63387000.0</v>
       </c>
-      <c r="N6" s="0" t="n">
+      <c r="O6" s="0" t="n">
         <v>-96890000.0</v>
       </c>
-      <c r="O6" s="0" t="n">
+      <c r="P6" s="0" t="n">
         <v>-85595000.0</v>
       </c>
-      <c r="P6" s="0" t="n">
+      <c r="Q6" s="0" t="n">
         <v>-83281000.0</v>
       </c>
-      <c r="Q6" s="0" t="n">
+      <c r="R6" s="0" t="n">
         <v>-76887000.0</v>
       </c>
-      <c r="R6" s="0" t="n">
+      <c r="S6" s="0" t="n">
         <v>-64512000.0</v>
       </c>
-      <c r="S6" s="0" t="n">
+      <c r="T6" s="0" t="n">
         <v>-63322000.0</v>
       </c>
-      <c r="T6" s="0" t="n">
+      <c r="U6" s="0" t="n">
         <v>-63666000.0</v>
       </c>
-      <c r="U6" s="0" t="n">
+      <c r="V6" s="0" t="n">
         <v>-41930000.0</v>
       </c>
-      <c r="V6" s="0" t="n">
+      <c r="W6" s="0" t="n">
         <v>-50989000.0</v>
       </c>
-      <c r="W6" s="0" t="n">
+      <c r="X6" s="0" t="n">
         <v>-28694000.0</v>
       </c>
-      <c r="X6" s="0" t="n">
+      <c r="Y6" s="0" t="n">
         <v>-20852000.0</v>
       </c>
-      <c r="Y6" s="0" t="n">
+      <c r="Z6" s="0" t="n">
         <v>-27813000.0</v>
       </c>
-      <c r="Z6" s="0" t="n">
+      <c r="AA6" s="0" t="n">
         <v>-22339000.0</v>
       </c>
-      <c r="AA6" s="0" t="n">
+      <c r="AB6" s="0" t="n">
         <v>-42227000.0</v>
       </c>
-      <c r="AB6" s="0" t="n">
+      <c r="AC6" s="0" t="n">
         <v>-37911000.0</v>
       </c>
-      <c r="AC6" s="0" t="n">
+      <c r="AD6" s="0" t="n">
         <v>-27845000.0</v>
       </c>
-      <c r="AD6" s="0" t="n">
+      <c r="AE6" s="0" t="n">
         <v>-21102000.0</v>
       </c>
-      <c r="AE6" s="0" t="n">
+      <c r="AF6" s="0" t="n">
         <v>-27859000.0</v>
       </c>
-      <c r="AF6" s="0" t="n">
+      <c r="AG6" s="0" t="n">
         <v>-22171000.0</v>
       </c>
-      <c r="AG6" s="0" t="n">
+      <c r="AH6" s="0" t="n">
         <v>-11758000.0</v>
       </c>
-      <c r="AH6" s="0" t="n">
+      <c r="AI6" s="0" t="n">
         <v>1423000.0</v>
       </c>
-      <c r="AI6" s="0" t="n">
+      <c r="AJ6" s="0" t="n">
         <v>-5197000.0</v>
       </c>
-      <c r="AJ6" s="0" t="n">
+      <c r="AK6" s="0" t="n">
         <v>-7826000.0</v>
       </c>
-      <c r="AK6" s="0" t="n">
+      <c r="AL6" s="0" t="n">
         <v>-13997000.0</v>
       </c>
-      <c r="AL6" s="0" t="n">
+      <c r="AM6" s="0" t="n">
         <v>-20420000.0</v>
       </c>
-      <c r="AM6" s="0" t="n">
+      <c r="AN6" s="0" t="n">
         <v>-23887000.0</v>
       </c>
-      <c r="AN6" s="0" t="n">
+      <c r="AO6" s="0" t="n">
         <v>-28521000.0</v>
       </c>
     </row>
@@ -866,120 +885,123 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>850000000.0</v>
+        <v>-64596000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>900000000.0</v>
+        <v>-87025000.0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>741318000.0</v>
+        <v>-20832000.0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>539817000.0</v>
+        <v>20235000.0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>262747000.0</v>
+        <v>24426000.0</v>
       </c>
       <c r="G7" s="0" t="n">
+        <v>77089000.0</v>
+      </c>
+      <c r="H7" s="0" t="n">
         <v>72226000.0</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="I7" s="0" t="n">
         <v>33807000.0</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="J7" s="0" t="n">
         <v>48206000.0</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="K7" s="0" t="n">
         <v>38389000.0</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="L7" s="0" t="n">
         <v>35159000.0</v>
       </c>
-      <c r="L7" s="0" t="n">
+      <c r="M7" s="0" t="n">
         <v>48814000.0</v>
       </c>
-      <c r="M7" s="0" t="n">
+      <c r="N7" s="0" t="n">
         <v>71452000.0</v>
       </c>
-      <c r="N7" s="0" t="n">
+      <c r="O7" s="0" t="n">
         <v>45517000.0</v>
       </c>
-      <c r="O7" s="0" t="n">
+      <c r="P7" s="0" t="n">
         <v>22915000.0</v>
       </c>
-      <c r="P7" s="0" t="n">
+      <c r="Q7" s="0" t="n">
         <v>-1931000.0</v>
       </c>
-      <c r="Q7" s="0" t="n">
+      <c r="R7" s="0" t="n">
         <v>-40283000.0</v>
       </c>
-      <c r="R7" s="0" t="n">
+      <c r="S7" s="0" t="n">
         <v>-53205000.0</v>
       </c>
-      <c r="S7" s="0" t="n">
+      <c r="T7" s="0" t="n">
         <v>11522000.0</v>
       </c>
-      <c r="T7" s="0" t="n">
+      <c r="U7" s="0" t="n">
         <v>36371000.0</v>
       </c>
-      <c r="U7" s="0" t="n">
+      <c r="V7" s="0" t="n">
         <v>56790000.0</v>
       </c>
-      <c r="V7" s="0" t="n">
+      <c r="W7" s="0" t="n">
         <v>90298000.0</v>
       </c>
-      <c r="W7" s="0" t="n">
+      <c r="X7" s="0" t="n">
         <v>8034000.0</v>
       </c>
-      <c r="X7" s="0" t="n">
+      <c r="Y7" s="0" t="n">
         <v>10481000.0</v>
       </c>
-      <c r="Y7" s="0" t="n">
+      <c r="Z7" s="0" t="n">
         <v>-176000.0</v>
       </c>
-      <c r="Z7" s="0" t="n">
+      <c r="AA7" s="0" t="n">
         <v>38040000.0</v>
       </c>
-      <c r="AA7" s="0" t="n">
+      <c r="AB7" s="0" t="n">
         <v>39872000.0</v>
       </c>
-      <c r="AB7" s="0" t="n">
+      <c r="AC7" s="0" t="n">
         <v>21925000.0</v>
       </c>
-      <c r="AC7" s="0" t="n">
+      <c r="AD7" s="0" t="n">
         <v>8016000.0</v>
       </c>
-      <c r="AD7" s="0" t="n">
+      <c r="AE7" s="0" t="n">
         <v>20304000.0</v>
       </c>
-      <c r="AE7" s="0" t="n">
+      <c r="AF7" s="0" t="n">
         <v>32948000.0</v>
       </c>
-      <c r="AF7" s="0" t="n">
+      <c r="AG7" s="0" t="n">
         <v>28284000.0</v>
       </c>
-      <c r="AG7" s="0" t="n">
+      <c r="AH7" s="0" t="n">
         <v>26853000.0</v>
       </c>
-      <c r="AH7" s="0" t="n">
+      <c r="AI7" s="0" t="n">
         <v>37411000.0</v>
       </c>
-      <c r="AI7" s="0" t="n">
+      <c r="AJ7" s="0" t="n">
         <v>24137000.0</v>
       </c>
-      <c r="AJ7" s="0" t="n">
+      <c r="AK7" s="0" t="n">
         <v>13890000.0</v>
       </c>
-      <c r="AK7" s="0" t="n">
+      <c r="AL7" s="0" t="n">
         <v>15801000.0</v>
       </c>
-      <c r="AL7" s="0" t="n">
+      <c r="AM7" s="0" t="n">
         <v>9771000.0</v>
       </c>
-      <c r="AM7" s="0" t="n">
+      <c r="AN7" s="0" t="n">
         <v>-693000.0</v>
       </c>
-      <c r="AN7" s="0" t="n">
+      <c r="AO7" s="0" t="n">
         <v>-2274000.0</v>
       </c>
     </row>
@@ -990,120 +1012,123 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
+        <v>16494000.0</v>
+      </c>
+      <c r="C8" s="0" t="n">
         <v>-17206000.0</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="D8" s="0" t="n">
         <v>21740000.0</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="E8" s="0" t="n">
         <v>-12692000.0</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="F8" s="0" t="n">
         <v>-33576000.0</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="G8" s="0" t="n">
         <v>-32775000.0</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="H8" s="0" t="n">
         <v>-32645000.0</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="I8" s="0" t="n">
         <v>-3269000.0</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="J8" s="0" t="n">
         <v>2601000.0</v>
       </c>
-      <c r="J8" s="0" t="n">
+      <c r="K8" s="0" t="n">
         <v>-9788000.0</v>
       </c>
-      <c r="K8" s="0" t="n">
+      <c r="L8" s="0" t="n">
         <v>5858000.0</v>
       </c>
-      <c r="L8" s="0" t="n">
+      <c r="M8" s="0" t="n">
         <v>-21796000.0</v>
       </c>
-      <c r="M8" s="0" t="n">
+      <c r="N8" s="0" t="n">
         <v>-20897000.0</v>
       </c>
-      <c r="N8" s="0" t="n">
+      <c r="O8" s="0" t="n">
         <v>-17334000.0</v>
       </c>
-      <c r="O8" s="0" t="n">
+      <c r="P8" s="0" t="n">
         <v>1613000.0</v>
       </c>
-      <c r="P8" s="0" t="n">
+      <c r="Q8" s="0" t="n">
         <v>13875000.0</v>
       </c>
-      <c r="Q8" s="0" t="n">
+      <c r="R8" s="0" t="n">
         <v>17351000.0</v>
       </c>
-      <c r="R8" s="0" t="n">
+      <c r="S8" s="0" t="n">
         <v>8924000.0</v>
       </c>
-      <c r="S8" s="0" t="n">
+      <c r="T8" s="0" t="n">
         <v>40952000.0</v>
       </c>
-      <c r="T8" s="0" t="n">
+      <c r="U8" s="0" t="n">
         <v>7301000.0</v>
       </c>
-      <c r="U8" s="0" t="n">
+      <c r="V8" s="0" t="n">
         <v>13949000.0</v>
       </c>
-      <c r="V8" s="0" t="n">
+      <c r="W8" s="0" t="n">
         <v>23390000.0</v>
       </c>
-      <c r="W8" s="0" t="n">
+      <c r="X8" s="0" t="n">
         <v>-17598000.0</v>
       </c>
-      <c r="X8" s="0" t="n">
+      <c r="Y8" s="0" t="n">
         <v>6826000.0</v>
       </c>
-      <c r="Y8" s="0" t="n">
+      <c r="Z8" s="0" t="n">
         <v>1620000.0</v>
       </c>
-      <c r="Z8" s="0" t="n">
+      <c r="AA8" s="0" t="n">
         <v>-5634000.0</v>
       </c>
-      <c r="AA8" s="0" t="n">
+      <c r="AB8" s="0" t="n">
         <v>-18454000.0</v>
       </c>
-      <c r="AB8" s="0" t="n">
+      <c r="AC8" s="0" t="n">
         <v>3483000.0</v>
       </c>
-      <c r="AC8" s="0" t="n">
+      <c r="AD8" s="0" t="n">
         <v>6824000.0</v>
       </c>
-      <c r="AD8" s="0" t="n">
+      <c r="AE8" s="0" t="n">
         <v>1438000.0</v>
       </c>
-      <c r="AE8" s="0" t="n">
+      <c r="AF8" s="0" t="n">
         <v>8171000.0</v>
       </c>
-      <c r="AF8" s="0" t="n">
+      <c r="AG8" s="0" t="n">
         <v>9901000.0</v>
       </c>
-      <c r="AG8" s="0" t="n">
+      <c r="AH8" s="0" t="n">
         <v>7574000.0</v>
       </c>
-      <c r="AH8" s="0" t="n">
+      <c r="AI8" s="0" t="n">
         <v>-1548000.0</v>
       </c>
-      <c r="AI8" s="0" t="n">
+      <c r="AJ8" s="0" t="n">
         <v>2252000.0</v>
       </c>
-      <c r="AJ8" s="0" t="n">
+      <c r="AK8" s="0" t="n">
         <v>-11568000.0</v>
       </c>
-      <c r="AK8" s="0" t="n">
+      <c r="AL8" s="0" t="n">
         <v>-12208000.0</v>
       </c>
-      <c r="AL8" s="0" t="n">
+      <c r="AM8" s="0" t="n">
         <v>3668000.0</v>
       </c>
-      <c r="AM8" s="0" t="n">
+      <c r="AN8" s="0" t="n">
         <v>-4743000.0</v>
       </c>
-      <c r="AN8" s="0" t="n">
+      <c r="AO8" s="0" t="n">
         <v>-115000.0</v>
       </c>
     </row>
@@ -1114,120 +1139,123 @@
         </is>
       </c>
       <c r="B9" s="0" t="n">
+        <v>214071000.0</v>
+      </c>
+      <c r="C9" s="0" t="n">
         <v>85365000.0</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="D9" s="0" t="n">
         <v>156092000.0</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="E9" s="0" t="n">
         <v>140011000.0</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="F9" s="0" t="n">
         <v>87936000.0</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="G9" s="0" t="n">
         <v>48262000.0</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="H9" s="0" t="n">
         <v>40293000.0</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="I9" s="0" t="n">
         <v>17368000.0</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="J9" s="0" t="n">
         <v>7849000.0</v>
       </c>
-      <c r="J9" s="0" t="n">
+      <c r="K9" s="0" t="n">
         <v>20208000.0</v>
       </c>
-      <c r="K9" s="0" t="n">
+      <c r="L9" s="0" t="n">
         <v>-14552000.0</v>
       </c>
-      <c r="L9" s="0" t="n">
+      <c r="M9" s="0" t="n">
         <v>-23460000.0</v>
       </c>
-      <c r="M9" s="0" t="n">
+      <c r="N9" s="0" t="n">
         <v>29177000.0</v>
       </c>
-      <c r="N9" s="0" t="n">
+      <c r="O9" s="0" t="n">
         <v>-8757000.0</v>
       </c>
-      <c r="O9" s="0" t="n">
+      <c r="P9" s="0" t="n">
         <v>-23581000.0</v>
       </c>
-      <c r="P9" s="0" t="n">
+      <c r="Q9" s="0" t="n">
         <v>-72241000.0</v>
       </c>
-      <c r="Q9" s="0" t="n">
+      <c r="R9" s="0" t="n">
         <v>-136826000.0</v>
       </c>
-      <c r="R9" s="0" t="n">
+      <c r="S9" s="0" t="n">
         <v>-227837000.0</v>
       </c>
-      <c r="S9" s="0" t="n">
+      <c r="T9" s="0" t="n">
         <v>-293474000.0</v>
       </c>
-      <c r="T9" s="0" t="n">
+      <c r="U9" s="0" t="n">
         <v>-285956000.0</v>
       </c>
-      <c r="U9" s="0" t="n">
+      <c r="V9" s="0" t="n">
         <v>-253142000.0</v>
       </c>
-      <c r="V9" s="0" t="n">
+      <c r="W9" s="0" t="n">
         <v>-219499000.0</v>
       </c>
-      <c r="W9" s="0" t="n">
+      <c r="X9" s="0" t="n">
         <v>-177559000.0</v>
       </c>
-      <c r="X9" s="0" t="n">
+      <c r="Y9" s="0" t="n">
         <v>-183266000.0</v>
       </c>
-      <c r="Y9" s="0" t="n">
+      <c r="Z9" s="0" t="n">
         <v>-181740000.0</v>
       </c>
-      <c r="Z9" s="0" t="n">
+      <c r="AA9" s="0" t="n">
         <v>-70422000.0</v>
       </c>
-      <c r="AA9" s="0" t="n">
+      <c r="AB9" s="0" t="n">
         <v>-55512000.0</v>
       </c>
-      <c r="AB9" s="0" t="n">
+      <c r="AC9" s="0" t="n">
         <v>-56447000.0</v>
       </c>
-      <c r="AC9" s="0" t="n">
+      <c r="AD9" s="0" t="n">
         <v>-51799000.0</v>
       </c>
-      <c r="AD9" s="0" t="n">
+      <c r="AE9" s="0" t="n">
         <v>-57335000.0</v>
       </c>
-      <c r="AE9" s="0" t="n">
+      <c r="AF9" s="0" t="n">
         <v>-36352000.0</v>
       </c>
-      <c r="AF9" s="0" t="n">
+      <c r="AG9" s="0" t="n">
         <v>-12646000.0</v>
       </c>
-      <c r="AG9" s="0" t="n">
+      <c r="AH9" s="0" t="n">
         <v>-7249000.0</v>
       </c>
-      <c r="AH9" s="0" t="n">
+      <c r="AI9" s="0" t="n">
         <v>17609000.0</v>
       </c>
-      <c r="AI9" s="0" t="n">
+      <c r="AJ9" s="0" t="n">
         <v>5110000.0</v>
       </c>
-      <c r="AJ9" s="0" t="n">
+      <c r="AK9" s="0" t="n">
         <v>-243000.0</v>
       </c>
-      <c r="AK9" s="0" t="n">
+      <c r="AL9" s="0" t="n">
         <v>14743000.0</v>
       </c>
-      <c r="AL9" s="0" t="n">
+      <c r="AM9" s="0" t="n">
         <v>18415000.0</v>
       </c>
-      <c r="AM9" s="0" t="n">
+      <c r="AN9" s="0" t="n">
         <v>3146000.0</v>
       </c>
-      <c r="AN9" s="0" t="n">
+      <c r="AO9" s="0" t="n">
         <v>3342000.0</v>
       </c>
     </row>
@@ -1238,120 +1266,123 @@
         </is>
       </c>
       <c r="B10" s="0" t="n">
+        <v>-99265000.0</v>
+      </c>
+      <c r="C10" s="0" t="n">
         <v>-114312000.0</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="D10" s="0" t="n">
         <v>-134071000.0</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="E10" s="0" t="n">
         <v>-83196000.0</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="F10" s="0" t="n">
         <v>-156824000.0</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="G10" s="0" t="n">
         <v>-145026000.0</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="H10" s="0" t="n">
         <v>-136320000.0</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="I10" s="0" t="n">
         <v>-153325000.0</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="J10" s="0" t="n">
         <v>-143212000.0</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="K10" s="0" t="n">
         <v>-144620000.0</v>
       </c>
-      <c r="K10" s="0" t="n">
+      <c r="L10" s="0" t="n">
         <v>-142431000.0</v>
       </c>
-      <c r="L10" s="0" t="n">
+      <c r="M10" s="0" t="n">
         <v>-135054000.0</v>
       </c>
-      <c r="M10" s="0" t="n">
+      <c r="N10" s="0" t="n">
         <v>-160293000.0</v>
       </c>
-      <c r="N10" s="0" t="n">
+      <c r="O10" s="0" t="n">
         <v>-199219000.0</v>
       </c>
-      <c r="O10" s="0" t="n">
+      <c r="P10" s="0" t="n">
         <v>-202520000.0</v>
       </c>
-      <c r="P10" s="0" t="n">
+      <c r="Q10" s="0" t="n">
         <v>-194517000.0</v>
       </c>
-      <c r="Q10" s="0" t="n">
+      <c r="R10" s="0" t="n">
         <v>-172266000.0</v>
       </c>
-      <c r="R10" s="0" t="n">
+      <c r="S10" s="0" t="n">
         <v>-148380000.0</v>
       </c>
-      <c r="S10" s="0" t="n">
+      <c r="T10" s="0" t="n">
         <v>-196498000.0</v>
       </c>
-      <c r="T10" s="0" t="n">
+      <c r="U10" s="0" t="n">
         <v>-219075000.0</v>
       </c>
-      <c r="U10" s="0" t="n">
+      <c r="V10" s="0" t="n">
         <v>-229025000.0</v>
       </c>
-      <c r="V10" s="0" t="n">
+      <c r="W10" s="0" t="n">
         <v>-227653000.0</v>
       </c>
-      <c r="W10" s="0" t="n">
+      <c r="X10" s="0" t="n">
         <v>-164111000.0</v>
       </c>
-      <c r="X10" s="0" t="n">
+      <c r="Y10" s="0" t="n">
         <v>-132225000.0</v>
       </c>
-      <c r="Y10" s="0" t="n">
+      <c r="Z10" s="0" t="n">
         <v>-137287000.0</v>
       </c>
-      <c r="Z10" s="0" t="n">
+      <c r="AA10" s="0" t="n">
         <v>-117062000.0</v>
       </c>
-      <c r="AA10" s="0" t="n">
+      <c r="AB10" s="0" t="n">
         <v>-235548000.0</v>
       </c>
-      <c r="AB10" s="0" t="n">
+      <c r="AC10" s="0" t="n">
         <v>-223580000.0</v>
       </c>
-      <c r="AC10" s="0" t="n">
+      <c r="AD10" s="0" t="n">
         <v>-193474000.0</v>
       </c>
-      <c r="AD10" s="0" t="n">
+      <c r="AE10" s="0" t="n">
         <v>-181693000.0</v>
       </c>
-      <c r="AE10" s="0" t="n">
+      <c r="AF10" s="0" t="n">
         <v>-49335000.0</v>
       </c>
-      <c r="AF10" s="0" t="n">
+      <c r="AG10" s="0" t="n">
         <v>-51146000.0</v>
       </c>
-      <c r="AG10" s="0" t="n">
+      <c r="AH10" s="0" t="n">
         <v>-50218000.0</v>
       </c>
-      <c r="AH10" s="0" t="n">
+      <c r="AI10" s="0" t="n">
         <v>-44571000.0</v>
       </c>
-      <c r="AI10" s="0" t="n">
+      <c r="AJ10" s="0" t="n">
         <v>-39356000.0</v>
       </c>
-      <c r="AJ10" s="0" t="n">
+      <c r="AK10" s="0" t="n">
         <v>-80731000.0</v>
       </c>
-      <c r="AK10" s="0" t="n">
+      <c r="AL10" s="0" t="n">
         <v>-73157000.0</v>
       </c>
-      <c r="AL10" s="0" t="n">
+      <c r="AM10" s="0" t="n">
         <v>-73219000.0</v>
       </c>
-      <c r="AM10" s="0" t="n">
+      <c r="AN10" s="0" t="n">
         <v>-75280000.0</v>
       </c>
-      <c r="AN10" s="0" t="n">
+      <c r="AO10" s="0" t="n">
         <v>-28264000.0</v>
       </c>
     </row>
@@ -1362,51 +1393,49 @@
         </is>
       </c>
       <c r="B11" s="0" t="n">
+        <v>-22491000.0</v>
+      </c>
+      <c r="C11" s="0" t="n">
         <v>43952000.0</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="D11" s="0" t="n">
         <v>52733000.0</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="E11" s="0" t="n">
         <v>1604000.0</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="F11" s="0" t="n">
         <v>72022000.0</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="G11" s="0" t="n">
         <v>6620000.0</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="H11" s="0" t="n">
         <v>36677000.0</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="I11" s="0" t="n">
         <v>24230000.0</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="J11" s="0" t="n">
         <v>48294000.0</v>
       </c>
-      <c r="J11" s="0" t="n">
+      <c r="K11" s="0" t="n">
         <v>175000000.0</v>
-      </c>
-      <c r="K11" s="0" t="n">
-        <v>183244000.0</v>
       </c>
       <c r="L11" s="0" t="n">
         <v>183244000.0</v>
       </c>
-      <c r="M11" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N11" s="0" t="n">
+      <c r="M11" s="0" t="n">
+        <v>183244000.0</v>
+      </c>
+      <c r="N11" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O11" s="0" t="n">
         <v>230744000.0</v>
       </c>
-      <c r="O11" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="P11" s="0" t="inlineStr">
         <is>
           <t/>
@@ -1437,14 +1466,14 @@
           <t/>
         </is>
       </c>
-      <c r="V11" s="0" t="n">
+      <c r="V11" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W11" s="0" t="n">
         <v>24744000.0</v>
       </c>
-      <c r="W11" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="X11" s="0" t="inlineStr">
         <is>
           <t/>
@@ -1526,6 +1555,11 @@
         </is>
       </c>
       <c r="AN11" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO11" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1617,22 +1651,24 @@
           <t/>
         </is>
       </c>
-      <c r="R12" s="0" t="n">
+      <c r="R12" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S12" s="0" t="n">
         <v>-2789000.0</v>
-      </c>
-      <c r="S12" s="0" t="n">
-        <v>-1467000.0</v>
       </c>
       <c r="T12" s="0" t="n">
         <v>-1467000.0</v>
       </c>
-      <c r="U12" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="V12" s="0" t="n">
-        <v>-538392000.0</v>
+      <c r="U12" s="0" t="n">
+        <v>-1467000.0</v>
+      </c>
+      <c r="V12" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="W12" s="0" t="n">
         <v>-538392000.0</v>
@@ -1643,10 +1679,8 @@
       <c r="Y12" s="0" t="n">
         <v>-538392000.0</v>
       </c>
-      <c r="Z12" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="Z12" s="0" t="n">
+        <v>-538392000.0</v>
       </c>
       <c r="AA12" s="0" t="inlineStr">
         <is>
@@ -1663,22 +1697,22 @@
           <t/>
         </is>
       </c>
-      <c r="AD12" s="0" t="n">
-        <v>-9875000.0</v>
+      <c r="AD12" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="AE12" s="0" t="n">
         <v>-9875000.0</v>
       </c>
       <c r="AF12" s="0" t="n">
-        <v>-28701000.0</v>
+        <v>-9875000.0</v>
       </c>
       <c r="AG12" s="0" t="n">
         <v>-28701000.0</v>
       </c>
-      <c r="AH12" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="AH12" s="0" t="n">
+        <v>-28701000.0</v>
       </c>
       <c r="AI12" s="0" t="inlineStr">
         <is>
@@ -1706,6 +1740,11 @@
         </is>
       </c>
       <c r="AN12" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO12" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1718,120 +1757,123 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
+        <v>-70960000.0</v>
+      </c>
+      <c r="C13" s="0" t="n">
         <v>26171000.0</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="D13" s="0" t="n">
         <v>-23711000.0</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="E13" s="0" t="n">
         <v>-80542000.0</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="F13" s="0" t="n">
         <v>182734000.0</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="G13" s="0" t="n">
         <v>108188000.0</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="H13" s="0" t="n">
         <v>48297000.0</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="I13" s="0" t="n">
         <v>429627000.0</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="J13" s="0" t="n">
         <v>380503000.0</v>
       </c>
-      <c r="J13" s="0" t="n">
+      <c r="K13" s="0" t="n">
         <v>358981000.0</v>
       </c>
-      <c r="K13" s="0" t="n">
+      <c r="L13" s="0" t="n">
         <v>472494000.0</v>
       </c>
-      <c r="L13" s="0" t="n">
+      <c r="M13" s="0" t="n">
         <v>-366607000.0</v>
       </c>
-      <c r="M13" s="0" t="n">
+      <c r="N13" s="0" t="n">
         <v>-366486000.0</v>
       </c>
-      <c r="N13" s="0" t="n">
+      <c r="O13" s="0" t="n">
         <v>-229487000.0</v>
       </c>
-      <c r="O13" s="0" t="n">
+      <c r="P13" s="0" t="n">
         <v>-548704000.0</v>
       </c>
-      <c r="P13" s="0" t="n">
+      <c r="Q13" s="0" t="n">
         <v>-453415000.0</v>
       </c>
-      <c r="Q13" s="0" t="n">
+      <c r="R13" s="0" t="n">
         <v>-359005000.0</v>
       </c>
-      <c r="R13" s="0" t="n">
+      <c r="S13" s="0" t="n">
         <v>-332180000.0</v>
       </c>
-      <c r="S13" s="0" t="n">
+      <c r="T13" s="0" t="n">
         <v>65024000.0</v>
       </c>
-      <c r="T13" s="0" t="n">
+      <c r="U13" s="0" t="n">
         <v>351458000.0</v>
       </c>
-      <c r="U13" s="0" t="n">
+      <c r="V13" s="0" t="n">
         <v>-161824000.0</v>
       </c>
-      <c r="V13" s="0" t="n">
+      <c r="W13" s="0" t="n">
         <v>-448471000.0</v>
       </c>
-      <c r="W13" s="0" t="n">
+      <c r="X13" s="0" t="n">
         <v>-38348000.0</v>
       </c>
-      <c r="X13" s="0" t="n">
+      <c r="Y13" s="0" t="n">
         <v>-260532000.0</v>
       </c>
-      <c r="Y13" s="0" t="n">
+      <c r="Z13" s="0" t="n">
         <v>151898000.0</v>
       </c>
-      <c r="Z13" s="0" t="n">
+      <c r="AA13" s="0" t="n">
         <v>301277000.0</v>
       </c>
-      <c r="AA13" s="0" t="n">
+      <c r="AB13" s="0" t="n">
         <v>-401294000.0</v>
       </c>
-      <c r="AB13" s="0" t="n">
+      <c r="AC13" s="0" t="n">
         <v>-156571000.0</v>
       </c>
-      <c r="AC13" s="0" t="n">
+      <c r="AD13" s="0" t="n">
         <v>-135075000.0</v>
       </c>
-      <c r="AD13" s="0" t="n">
+      <c r="AE13" s="0" t="n">
         <v>-106399000.0</v>
       </c>
-      <c r="AE13" s="0" t="n">
+      <c r="AF13" s="0" t="n">
         <v>20460000.0</v>
       </c>
-      <c r="AF13" s="0" t="n">
+      <c r="AG13" s="0" t="n">
         <v>-1989000.0</v>
       </c>
-      <c r="AG13" s="0" t="n">
+      <c r="AH13" s="0" t="n">
         <v>-168045000.0</v>
       </c>
-      <c r="AH13" s="0" t="n">
+      <c r="AI13" s="0" t="n">
         <v>-144331000.0</v>
       </c>
-      <c r="AI13" s="0" t="n">
+      <c r="AJ13" s="0" t="n">
         <v>-56592000.0</v>
       </c>
-      <c r="AJ13" s="0" t="n">
+      <c r="AK13" s="0" t="n">
         <v>-51936000.0</v>
       </c>
-      <c r="AK13" s="0" t="n">
+      <c r="AL13" s="0" t="n">
         <v>94234000.0</v>
       </c>
-      <c r="AL13" s="0" t="n">
+      <c r="AM13" s="0" t="n">
         <v>66562000.0</v>
       </c>
-      <c r="AM13" s="0" t="n">
+      <c r="AN13" s="0" t="n">
         <v>9645000.0</v>
       </c>
-      <c r="AN13" s="0" t="n">
+      <c r="AO13" s="0" t="n">
         <v>36566000.0</v>
       </c>
     </row>
@@ -1986,36 +2028,41 @@
           <t/>
         </is>
       </c>
-      <c r="AE14" s="0" t="n">
-        <v>-970000.0</v>
+      <c r="AE14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="AF14" s="0" t="n">
         <v>-970000.0</v>
       </c>
-      <c r="AG14" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AH14" s="0" t="n">
+      <c r="AG14" s="0" t="n">
+        <v>-970000.0</v>
+      </c>
+      <c r="AH14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI14" s="0" t="n">
         <v>-1743000.0</v>
       </c>
-      <c r="AI14" s="0" t="n">
+      <c r="AJ14" s="0" t="n">
         <v>-1258000.0</v>
       </c>
-      <c r="AJ14" s="0" t="n">
+      <c r="AK14" s="0" t="n">
         <v>-1913000.0</v>
       </c>
-      <c r="AK14" s="0" t="n">
+      <c r="AL14" s="0" t="n">
         <v>-2568000.0</v>
       </c>
-      <c r="AL14" s="0" t="n">
+      <c r="AM14" s="0" t="n">
         <v>-1903000.0</v>
       </c>
-      <c r="AM14" s="0" t="n">
+      <c r="AN14" s="0" t="n">
         <v>-2621000.0</v>
       </c>
-      <c r="AN14" s="0" t="n">
+      <c r="AO14" s="0" t="n">
         <v>-3416000.0</v>
       </c>
     </row>
@@ -2025,89 +2072,89 @@
           <t>Other investing activities</t>
         </is>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C15" s="0" t="n">
         <v>13089000.0</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="D15" s="0" t="n">
         <v>33992000.0</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="E15" s="0" t="n">
         <v>39078000.0</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="F15" s="0" t="n">
         <v>46526000.0</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="G15" s="0" t="n">
         <v>8478000.0</v>
       </c>
-      <c r="G15" s="0" t="n">
+      <c r="H15" s="0" t="n">
         <v>-1747000.0</v>
       </c>
-      <c r="H15" s="0" t="n">
+      <c r="I15" s="0" t="n">
         <v>23000.0</v>
       </c>
-      <c r="I15" s="0" t="n">
+      <c r="J15" s="0" t="n">
         <v>21000.0</v>
       </c>
-      <c r="J15" s="0" t="n">
+      <c r="K15" s="0" t="n">
         <v>-10000.0</v>
       </c>
-      <c r="K15" s="0" t="n">
+      <c r="L15" s="0" t="n">
         <v>-203000.0</v>
       </c>
-      <c r="L15" s="0" t="n">
+      <c r="M15" s="0" t="n">
         <v>-1034000.0</v>
       </c>
-      <c r="M15" s="0" t="n">
+      <c r="N15" s="0" t="n">
         <v>-461000.0</v>
       </c>
-      <c r="N15" s="0" t="n">
+      <c r="O15" s="0" t="n">
         <v>-1753000.0</v>
-      </c>
-      <c r="O15" s="0" t="n">
-        <v>-2108000.0</v>
       </c>
       <c r="P15" s="0" t="n">
         <v>-2108000.0</v>
       </c>
       <c r="Q15" s="0" t="n">
+        <v>-2108000.0</v>
+      </c>
+      <c r="R15" s="0" t="n">
         <v>-1939000.0</v>
       </c>
-      <c r="R15" s="0" t="n">
+      <c r="S15" s="0" t="n">
         <v>-698000.0</v>
-      </c>
-      <c r="S15" s="0" t="n">
-        <v>-150000.0</v>
       </c>
       <c r="T15" s="0" t="n">
         <v>-150000.0</v>
       </c>
       <c r="U15" s="0" t="n">
+        <v>-150000.0</v>
+      </c>
+      <c r="V15" s="0" t="n">
         <v>877000.0</v>
       </c>
-      <c r="V15" s="0" t="n">
+      <c r="W15" s="0" t="n">
         <v>-3326000.0</v>
       </c>
-      <c r="W15" s="0" t="n">
+      <c r="X15" s="0" t="n">
         <v>-55614000.0</v>
       </c>
-      <c r="X15" s="0" t="n">
+      <c r="Y15" s="0" t="n">
         <v>-57214000.0</v>
       </c>
-      <c r="Y15" s="0" t="n">
+      <c r="Z15" s="0" t="n">
         <v>-59741000.0</v>
       </c>
-      <c r="Z15" s="0" t="n">
+      <c r="AA15" s="0" t="n">
         <v>-56273000.0</v>
       </c>
-      <c r="AA15" s="0" t="n">
+      <c r="AB15" s="0" t="n">
         <v>-8985000.0</v>
       </c>
-      <c r="AB15" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AC15" s="0" t="inlineStr">
         <is>
           <t/>
@@ -2164,6 +2211,11 @@
         </is>
       </c>
       <c r="AN15" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO15" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2176,120 +2228,123 @@
         </is>
       </c>
       <c r="B16" s="0" t="n">
+        <v>-201813000.0</v>
+      </c>
+      <c r="C16" s="0" t="n">
         <v>-53621000.0</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="D16" s="0" t="n">
         <v>-113544000.0</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="E16" s="0" t="n">
         <v>-171565000.0</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="F16" s="0" t="n">
         <v>96857000.0</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="G16" s="0" t="n">
         <v>-31026000.0</v>
       </c>
-      <c r="G16" s="0" t="n">
+      <c r="H16" s="0" t="n">
         <v>-53093000.0</v>
       </c>
-      <c r="H16" s="0" t="n">
+      <c r="I16" s="0" t="n">
         <v>300555000.0</v>
       </c>
-      <c r="I16" s="0" t="n">
+      <c r="J16" s="0" t="n">
         <v>285606000.0</v>
       </c>
-      <c r="J16" s="0" t="n">
+      <c r="K16" s="0" t="n">
         <v>264351000.0</v>
       </c>
-      <c r="K16" s="0" t="n">
+      <c r="L16" s="0" t="n">
         <v>474860000.0</v>
       </c>
-      <c r="L16" s="0" t="n">
+      <c r="M16" s="0" t="n">
         <v>-357695000.0</v>
       </c>
-      <c r="M16" s="0" t="n">
+      <c r="N16" s="0" t="n">
         <v>-402240000.0</v>
       </c>
-      <c r="N16" s="0" t="n">
+      <c r="O16" s="0" t="n">
         <v>-305459000.0</v>
       </c>
-      <c r="O16" s="0" t="n">
+      <c r="P16" s="0" t="n">
         <v>-754654000.0</v>
       </c>
-      <c r="P16" s="0" t="n">
+      <c r="Q16" s="0" t="n">
         <v>-651362000.0</v>
       </c>
-      <c r="Q16" s="0" t="n">
+      <c r="R16" s="0" t="n">
         <v>-535999000.0</v>
       </c>
-      <c r="R16" s="0" t="n">
+      <c r="S16" s="0" t="n">
         <v>-484047000.0</v>
       </c>
-      <c r="S16" s="0" t="n">
+      <c r="T16" s="0" t="n">
         <v>-94847000.0</v>
       </c>
-      <c r="T16" s="0" t="n">
+      <c r="U16" s="0" t="n">
         <v>169010000.0</v>
       </c>
-      <c r="U16" s="0" t="n">
+      <c r="V16" s="0" t="n">
         <v>-351728000.0</v>
       </c>
-      <c r="V16" s="0" t="n">
+      <c r="W16" s="0" t="n">
         <v>-1179598000.0</v>
       </c>
-      <c r="W16" s="0" t="n">
+      <c r="X16" s="0" t="n">
         <v>-796465000.0</v>
       </c>
-      <c r="X16" s="0" t="n">
+      <c r="Y16" s="0" t="n">
         <v>-920863000.0</v>
       </c>
-      <c r="Y16" s="0" t="n">
+      <c r="Z16" s="0" t="n">
         <v>-516022000.0</v>
       </c>
-      <c r="Z16" s="0" t="n">
+      <c r="AA16" s="0" t="n">
         <v>196327000.0</v>
       </c>
-      <c r="AA16" s="0" t="n">
+      <c r="AB16" s="0" t="n">
         <v>-572842000.0</v>
       </c>
-      <c r="AB16" s="0" t="n">
+      <c r="AC16" s="0" t="n">
         <v>-382051000.0</v>
       </c>
-      <c r="AC16" s="0" t="n">
+      <c r="AD16" s="0" t="n">
         <v>-329434000.0</v>
       </c>
-      <c r="AD16" s="0" t="n">
+      <c r="AE16" s="0" t="n">
         <v>-298852000.0</v>
       </c>
-      <c r="AE16" s="0" t="n">
+      <c r="AF16" s="0" t="n">
         <v>-44720000.0</v>
       </c>
-      <c r="AF16" s="0" t="n">
+      <c r="AG16" s="0" t="n">
         <v>-68980000.0</v>
       </c>
-      <c r="AG16" s="0" t="n">
+      <c r="AH16" s="0" t="n">
         <v>-233623000.0</v>
       </c>
-      <c r="AH16" s="0" t="n">
+      <c r="AI16" s="0" t="n">
         <v>-195645000.0</v>
       </c>
-      <c r="AI16" s="0" t="n">
+      <c r="AJ16" s="0" t="n">
         <v>-178206000.0</v>
       </c>
-      <c r="AJ16" s="0" t="n">
+      <c r="AK16" s="0" t="n">
         <v>-215580000.0</v>
       </c>
-      <c r="AK16" s="0" t="n">
+      <c r="AL16" s="0" t="n">
         <v>-62491000.0</v>
       </c>
-      <c r="AL16" s="0" t="n">
+      <c r="AM16" s="0" t="n">
         <v>-89560000.0</v>
       </c>
-      <c r="AM16" s="0" t="n">
+      <c r="AN16" s="0" t="n">
         <v>-68256000.0</v>
       </c>
-      <c r="AN16" s="0" t="n">
+      <c r="AO16" s="0" t="n">
         <v>-13940000.0</v>
       </c>
     </row>
@@ -2300,37 +2355,35 @@
         </is>
       </c>
       <c r="B17" s="0" t="n">
+        <v>203702000.0</v>
+      </c>
+      <c r="C17" s="0" t="n">
         <v>203843000.0</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="D17" s="0" t="n">
         <v>574585000.0</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="E17" s="0" t="n">
         <v>577970000.0</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="F17" s="0" t="n">
         <v>-7381000.0</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="G17" s="0" t="n">
         <v>-7112000.0</v>
       </c>
-      <c r="G17" s="0" t="n">
+      <c r="H17" s="0" t="n">
         <v>-376978000.0</v>
       </c>
-      <c r="H17" s="0" t="n">
+      <c r="I17" s="0" t="n">
         <v>-376326000.0</v>
       </c>
-      <c r="I17" s="0" t="n">
+      <c r="J17" s="0" t="n">
         <v>106060000.0</v>
       </c>
-      <c r="J17" s="0" t="n">
+      <c r="K17" s="0" t="n">
         <v>832936000.0</v>
       </c>
-      <c r="K17" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="L17" s="0" t="inlineStr">
         <is>
           <t/>
@@ -2341,17 +2394,17 @@
           <t/>
         </is>
       </c>
-      <c r="N17" s="0" t="n">
+      <c r="N17" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O17" s="0" t="n">
         <v>1207648000.0</v>
       </c>
-      <c r="O17" s="0" t="n">
+      <c r="P17" s="0" t="n">
         <v>1207532000.0</v>
       </c>
-      <c r="P17" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="Q17" s="0" t="inlineStr">
         <is>
           <t/>
@@ -2417,45 +2470,50 @@
           <t/>
         </is>
       </c>
-      <c r="AD17" s="0" t="n">
+      <c r="AD17" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE17" s="0" t="n">
         <v>725426000.0</v>
       </c>
-      <c r="AE17" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AF17" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="AG17" s="0" t="n">
+      <c r="AG17" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH17" s="0" t="n">
         <v>-1131000.0</v>
       </c>
-      <c r="AH17" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AI17" s="0" t="n">
+      <c r="AI17" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ17" s="0" t="n">
         <v>-943000.0</v>
       </c>
-      <c r="AJ17" s="0" t="n">
+      <c r="AK17" s="0" t="n">
         <v>-957000.0</v>
       </c>
-      <c r="AK17" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AL17" s="0" t="n">
+      <c r="AL17" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM17" s="0" t="n">
         <v>-879000.0</v>
       </c>
-      <c r="AM17" s="0" t="n">
+      <c r="AN17" s="0" t="n">
         <v>-601000.0</v>
       </c>
-      <c r="AN17" s="0" t="n">
+      <c r="AO17" s="0" t="n">
         <v>-581000.0</v>
       </c>
     </row>
@@ -2466,120 +2524,123 @@
         </is>
       </c>
       <c r="B18" s="0" t="n">
+        <v>17614000.0</v>
+      </c>
+      <c r="C18" s="0" t="n">
         <v>21913000.0</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="D18" s="0" t="n">
         <v>20111000.0</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="E18" s="0" t="n">
         <v>9525000.0</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="F18" s="0" t="n">
         <v>35929000.0</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="G18" s="0" t="n">
         <v>31611000.0</v>
       </c>
-      <c r="G18" s="0" t="n">
+      <c r="H18" s="0" t="n">
         <v>33613000.0</v>
       </c>
-      <c r="H18" s="0" t="n">
+      <c r="I18" s="0" t="n">
         <v>41575000.0</v>
       </c>
-      <c r="I18" s="0" t="n">
+      <c r="J18" s="0" t="n">
         <v>60152000.0</v>
       </c>
-      <c r="J18" s="0" t="n">
+      <c r="K18" s="0" t="n">
         <v>67488000.0</v>
       </c>
-      <c r="K18" s="0" t="n">
+      <c r="L18" s="0" t="n">
         <v>70383000.0</v>
       </c>
-      <c r="L18" s="0" t="n">
+      <c r="M18" s="0" t="n">
         <v>65126000.0</v>
       </c>
-      <c r="M18" s="0" t="n">
+      <c r="N18" s="0" t="n">
         <v>60907000.0</v>
       </c>
-      <c r="N18" s="0" t="n">
+      <c r="O18" s="0" t="n">
         <v>60859000.0</v>
       </c>
-      <c r="O18" s="0" t="n">
+      <c r="P18" s="0" t="n">
         <v>70848000.0</v>
       </c>
-      <c r="P18" s="0" t="n">
+      <c r="Q18" s="0" t="n">
         <v>804810000.0</v>
       </c>
-      <c r="Q18" s="0" t="n">
+      <c r="R18" s="0" t="n">
         <v>796730000.0</v>
       </c>
-      <c r="R18" s="0" t="n">
+      <c r="S18" s="0" t="n">
         <v>787165000.0</v>
       </c>
-      <c r="S18" s="0" t="n">
+      <c r="T18" s="0" t="n">
         <v>773966000.0</v>
       </c>
-      <c r="T18" s="0" t="n">
+      <c r="U18" s="0" t="n">
         <v>40632000.0</v>
       </c>
-      <c r="U18" s="0" t="n">
+      <c r="V18" s="0" t="n">
         <v>38540000.0</v>
       </c>
-      <c r="V18" s="0" t="n">
+      <c r="W18" s="0" t="n">
         <v>951302000.0</v>
       </c>
-      <c r="W18" s="0" t="n">
+      <c r="X18" s="0" t="n">
         <v>982041000.0</v>
       </c>
-      <c r="X18" s="0" t="n">
+      <c r="Y18" s="0" t="n">
         <v>985486000.0</v>
       </c>
-      <c r="Y18" s="0" t="n">
+      <c r="Z18" s="0" t="n">
         <v>976475000.0</v>
       </c>
-      <c r="Z18" s="0" t="n">
+      <c r="AA18" s="0" t="n">
         <v>197368000.0</v>
       </c>
-      <c r="AA18" s="0" t="n">
+      <c r="AB18" s="0" t="n">
         <v>137636000.0</v>
       </c>
-      <c r="AB18" s="0" t="n">
+      <c r="AC18" s="0" t="n">
         <v>142550000.0</v>
       </c>
-      <c r="AC18" s="0" t="n">
+      <c r="AD18" s="0" t="n">
         <v>155362000.0</v>
       </c>
-      <c r="AD18" s="0" t="n">
+      <c r="AE18" s="0" t="n">
         <v>42766000.0</v>
       </c>
-      <c r="AE18" s="0" t="n">
+      <c r="AF18" s="0" t="n">
         <v>105623000.0</v>
       </c>
-      <c r="AF18" s="0" t="n">
+      <c r="AG18" s="0" t="n">
         <v>101612000.0</v>
       </c>
-      <c r="AG18" s="0" t="n">
+      <c r="AH18" s="0" t="n">
         <v>329461000.0</v>
       </c>
-      <c r="AH18" s="0" t="n">
+      <c r="AI18" s="0" t="n">
         <v>318560000.0</v>
       </c>
-      <c r="AI18" s="0" t="n">
+      <c r="AJ18" s="0" t="n">
         <v>283322000.0</v>
       </c>
-      <c r="AJ18" s="0" t="n">
+      <c r="AK18" s="0" t="n">
         <v>284744000.0</v>
       </c>
-      <c r="AK18" s="0" t="n">
+      <c r="AL18" s="0" t="n">
         <v>44138000.0</v>
       </c>
-      <c r="AL18" s="0" t="n">
+      <c r="AM18" s="0" t="n">
         <v>33592000.0</v>
       </c>
-      <c r="AM18" s="0" t="n">
+      <c r="AN18" s="0" t="n">
         <v>36651000.0</v>
       </c>
-      <c r="AN18" s="0" t="n">
+      <c r="AO18" s="0" t="n">
         <v>31515000.0</v>
       </c>
     </row>
@@ -2590,120 +2651,123 @@
         </is>
       </c>
       <c r="B19" s="0" t="n">
+        <v>188336000.0</v>
+      </c>
+      <c r="C19" s="0" t="n">
         <v>189779000.0</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="D19" s="0" t="n">
         <v>170610000.0</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="E19" s="0" t="n">
         <v>31578000.0</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="F19" s="0" t="n">
         <v>-66733000.0</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="G19" s="0" t="n">
         <v>-69184000.0</v>
       </c>
-      <c r="G19" s="0" t="n">
+      <c r="H19" s="0" t="n">
         <v>-101713000.0</v>
       </c>
-      <c r="H19" s="0" t="n">
+      <c r="I19" s="0" t="n">
         <v>-103227000.0</v>
       </c>
-      <c r="I19" s="0" t="n">
+      <c r="J19" s="0" t="n">
         <v>-87748000.0</v>
       </c>
-      <c r="J19" s="0" t="n">
+      <c r="K19" s="0" t="n">
         <v>-80542000.0</v>
       </c>
-      <c r="K19" s="0" t="n">
+      <c r="L19" s="0" t="n">
         <v>-78906000.0</v>
       </c>
-      <c r="L19" s="0" t="n">
+      <c r="M19" s="0" t="n">
         <v>-78577000.0</v>
       </c>
-      <c r="M19" s="0" t="n">
+      <c r="N19" s="0" t="n">
         <v>-38471000.0</v>
       </c>
-      <c r="N19" s="0" t="n">
+      <c r="O19" s="0" t="n">
         <v>-35401000.0</v>
       </c>
-      <c r="O19" s="0" t="n">
+      <c r="P19" s="0" t="n">
         <v>-38599000.0</v>
       </c>
-      <c r="P19" s="0" t="n">
+      <c r="Q19" s="0" t="n">
         <v>-35779000.0</v>
       </c>
-      <c r="Q19" s="0" t="n">
+      <c r="R19" s="0" t="n">
         <v>-39101000.0</v>
       </c>
-      <c r="R19" s="0" t="n">
+      <c r="S19" s="0" t="n">
         <v>-60057000.0</v>
       </c>
-      <c r="S19" s="0" t="n">
+      <c r="T19" s="0" t="n">
         <v>-57253000.0</v>
       </c>
-      <c r="T19" s="0" t="n">
+      <c r="U19" s="0" t="n">
         <v>-57159000.0</v>
       </c>
-      <c r="U19" s="0" t="n">
+      <c r="V19" s="0" t="n">
         <v>-64872000.0</v>
       </c>
-      <c r="V19" s="0" t="n">
+      <c r="W19" s="0" t="n">
         <v>-25579000.0</v>
       </c>
-      <c r="W19" s="0" t="n">
+      <c r="X19" s="0" t="n">
         <v>-24314000.0</v>
       </c>
-      <c r="X19" s="0" t="n">
+      <c r="Y19" s="0" t="n">
         <v>-22653000.0</v>
       </c>
-      <c r="Y19" s="0" t="n">
+      <c r="Z19" s="0" t="n">
         <v>-14450000.0</v>
       </c>
-      <c r="Z19" s="0" t="n">
+      <c r="AA19" s="0" t="n">
         <v>-13170000.0</v>
       </c>
-      <c r="AA19" s="0" t="n">
+      <c r="AB19" s="0" t="n">
         <v>-16234000.0</v>
       </c>
-      <c r="AB19" s="0" t="n">
+      <c r="AC19" s="0" t="n">
         <v>-17720000.0</v>
       </c>
-      <c r="AC19" s="0" t="n">
+      <c r="AD19" s="0" t="n">
         <v>-11992000.0</v>
       </c>
-      <c r="AD19" s="0" t="n">
+      <c r="AE19" s="0" t="n">
         <v>-22297000.0</v>
       </c>
-      <c r="AE19" s="0" t="n">
+      <c r="AF19" s="0" t="n">
         <v>-24851000.0</v>
       </c>
-      <c r="AF19" s="0" t="n">
+      <c r="AG19" s="0" t="n">
         <v>-22691000.0</v>
       </c>
-      <c r="AG19" s="0" t="n">
+      <c r="AH19" s="0" t="n">
         <v>-16554000.0</v>
       </c>
-      <c r="AH19" s="0" t="n">
+      <c r="AI19" s="0" t="n">
         <v>-6269000.0</v>
       </c>
-      <c r="AI19" s="0" t="n">
+      <c r="AJ19" s="0" t="n">
         <v>740000.0</v>
       </c>
-      <c r="AJ19" s="0" t="n">
+      <c r="AK19" s="0" t="n">
         <v>-3319000.0</v>
       </c>
-      <c r="AK19" s="0" t="n">
+      <c r="AL19" s="0" t="n">
         <v>-4022000.0</v>
       </c>
-      <c r="AL19" s="0" t="n">
+      <c r="AM19" s="0" t="n">
         <v>-3375000.0</v>
       </c>
-      <c r="AM19" s="0" t="n">
+      <c r="AN19" s="0" t="n">
         <v>-27225000.0</v>
       </c>
-      <c r="AN19" s="0" t="n">
+      <c r="AO19" s="0" t="n">
         <v>-23159000.0</v>
       </c>
     </row>
@@ -2714,120 +2778,123 @@
         </is>
       </c>
       <c r="B20" s="0" t="n">
+        <v>176425000.0</v>
+      </c>
+      <c r="C20" s="0" t="n">
         <v>181118000.0</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="D20" s="0" t="n">
         <v>551315000.0</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="E20" s="0" t="n">
         <v>546084000.0</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="F20" s="0" t="n">
         <v>-69364000.0</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="G20" s="0" t="n">
         <v>-74674000.0</v>
       </c>
-      <c r="G20" s="0" t="n">
+      <c r="H20" s="0" t="n">
         <v>-445078000.0</v>
       </c>
-      <c r="H20" s="0" t="n">
+      <c r="I20" s="0" t="n">
         <v>-437952000.0</v>
       </c>
-      <c r="I20" s="0" t="n">
+      <c r="J20" s="0" t="n">
         <v>-403223000.0</v>
       </c>
-      <c r="J20" s="0" t="n">
+      <c r="K20" s="0" t="n">
         <v>-388007000.0</v>
       </c>
-      <c r="K20" s="0" t="n">
+      <c r="L20" s="0" t="n">
         <v>-8549000.0</v>
       </c>
-      <c r="L20" s="0" t="n">
+      <c r="M20" s="0" t="n">
         <v>468236000.0</v>
       </c>
-      <c r="M20" s="0" t="n">
+      <c r="N20" s="0" t="n">
         <v>504123000.0</v>
       </c>
-      <c r="N20" s="0" t="n">
+      <c r="O20" s="0" t="n">
         <v>507145000.0</v>
       </c>
-      <c r="O20" s="0" t="n">
+      <c r="P20" s="0" t="n">
         <v>513962000.0</v>
       </c>
-      <c r="P20" s="0" t="n">
+      <c r="Q20" s="0" t="n">
         <v>769031000.0</v>
       </c>
-      <c r="Q20" s="0" t="n">
+      <c r="R20" s="0" t="n">
         <v>757629000.0</v>
       </c>
-      <c r="R20" s="0" t="n">
+      <c r="S20" s="0" t="n">
         <v>727108000.0</v>
       </c>
-      <c r="S20" s="0" t="n">
+      <c r="T20" s="0" t="n">
         <v>716713000.0</v>
       </c>
-      <c r="T20" s="0" t="n">
+      <c r="U20" s="0" t="n">
         <v>-16527000.0</v>
       </c>
-      <c r="U20" s="0" t="n">
+      <c r="V20" s="0" t="n">
         <v>-26332000.0</v>
       </c>
-      <c r="V20" s="0" t="n">
+      <c r="W20" s="0" t="n">
         <v>925723000.0</v>
       </c>
-      <c r="W20" s="0" t="n">
+      <c r="X20" s="0" t="n">
         <v>957727000.0</v>
       </c>
-      <c r="X20" s="0" t="n">
+      <c r="Y20" s="0" t="n">
         <v>962833000.0</v>
       </c>
-      <c r="Y20" s="0" t="n">
+      <c r="Z20" s="0" t="n">
         <v>962025000.0</v>
       </c>
-      <c r="Z20" s="0" t="n">
+      <c r="AA20" s="0" t="n">
         <v>184198000.0</v>
       </c>
-      <c r="AA20" s="0" t="n">
+      <c r="AB20" s="0" t="n">
         <v>847604000.0</v>
       </c>
-      <c r="AB20" s="0" t="n">
+      <c r="AC20" s="0" t="n">
         <v>851032000.0</v>
       </c>
-      <c r="AC20" s="0" t="n">
+      <c r="AD20" s="0" t="n">
         <v>869813000.0</v>
       </c>
-      <c r="AD20" s="0" t="n">
+      <c r="AE20" s="0" t="n">
         <v>746671000.0</v>
       </c>
-      <c r="AE20" s="0" t="n">
+      <c r="AF20" s="0" t="n">
         <v>81307000.0</v>
       </c>
-      <c r="AF20" s="0" t="n">
+      <c r="AG20" s="0" t="n">
         <v>79314000.0</v>
       </c>
-      <c r="AG20" s="0" t="n">
+      <c r="AH20" s="0" t="n">
         <v>312666000.0</v>
       </c>
-      <c r="AH20" s="0" t="n">
+      <c r="AI20" s="0" t="n">
         <v>312291000.0</v>
       </c>
-      <c r="AI20" s="0" t="n">
+      <c r="AJ20" s="0" t="n">
         <v>283172000.0</v>
       </c>
-      <c r="AJ20" s="0" t="n">
+      <c r="AK20" s="0" t="n">
         <v>280624000.0</v>
       </c>
-      <c r="AK20" s="0" t="n">
+      <c r="AL20" s="0" t="n">
         <v>39552000.0</v>
       </c>
-      <c r="AL20" s="0" t="n">
+      <c r="AM20" s="0" t="n">
         <v>29338000.0</v>
       </c>
-      <c r="AM20" s="0" t="n">
+      <c r="AN20" s="0" t="n">
         <v>8825000.0</v>
       </c>
-      <c r="AN20" s="0" t="n">
+      <c r="AO20" s="0" t="n">
         <v>7775000.0</v>
       </c>
     </row>
@@ -2838,88 +2905,86 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
+        <v>1998000.0</v>
+      </c>
+      <c r="C21" s="0" t="n">
         <v>-1150000.0</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="D21" s="0" t="n">
         <v>-1408000.0</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="E21" s="0" t="n">
         <v>-3207000.0</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="F21" s="0" t="n">
         <v>-3166000.0</v>
       </c>
-      <c r="F21" s="0" t="n">
+      <c r="G21" s="0" t="n">
         <v>902000.0</v>
       </c>
-      <c r="G21" s="0" t="n">
+      <c r="H21" s="0" t="n">
         <v>-1086000.0</v>
       </c>
-      <c r="H21" s="0" t="n">
+      <c r="I21" s="0" t="n">
         <v>195000.0</v>
       </c>
-      <c r="I21" s="0" t="n">
+      <c r="J21" s="0" t="n">
         <v>157000.0</v>
       </c>
-      <c r="J21" s="0" t="n">
+      <c r="K21" s="0" t="n">
         <v>-598000.0</v>
       </c>
-      <c r="K21" s="0" t="n">
+      <c r="L21" s="0" t="n">
         <v>-974000.0</v>
       </c>
-      <c r="L21" s="0" t="n">
+      <c r="M21" s="0" t="n">
         <v>-14534000.0</v>
       </c>
-      <c r="M21" s="0" t="n">
+      <c r="N21" s="0" t="n">
         <v>-5314000.0</v>
       </c>
-      <c r="N21" s="0" t="n">
+      <c r="O21" s="0" t="n">
         <v>-3231000.0</v>
       </c>
-      <c r="O21" s="0" t="n">
+      <c r="P21" s="0" t="n">
         <v>-11677000.0</v>
       </c>
-      <c r="P21" s="0" t="n">
+      <c r="Q21" s="0" t="n">
         <v>3467000.0</v>
       </c>
-      <c r="Q21" s="0" t="n">
+      <c r="R21" s="0" t="n">
         <v>-7023000.0</v>
       </c>
-      <c r="R21" s="0" t="n">
+      <c r="S21" s="0" t="n">
         <v>-3934000.0</v>
       </c>
-      <c r="S21" s="0" t="n">
+      <c r="T21" s="0" t="n">
         <v>2611000.0</v>
       </c>
-      <c r="T21" s="0" t="n">
+      <c r="U21" s="0" t="n">
         <v>-1222000.0</v>
       </c>
-      <c r="U21" s="0" t="n">
+      <c r="V21" s="0" t="n">
         <v>1085000.0</v>
       </c>
-      <c r="V21" s="0" t="n">
+      <c r="W21" s="0" t="n">
         <v>-5072000.0</v>
       </c>
-      <c r="W21" s="0" t="n">
+      <c r="X21" s="0" t="n">
         <v>-5362000.0</v>
       </c>
-      <c r="X21" s="0" t="n">
+      <c r="Y21" s="0" t="n">
         <v>-2757000.0</v>
       </c>
-      <c r="Y21" s="0" t="n">
+      <c r="Z21" s="0" t="n">
         <v>-3471000.0</v>
       </c>
-      <c r="Z21" s="0" t="n">
+      <c r="AA21" s="0" t="n">
         <v>-3398000.0</v>
       </c>
-      <c r="AA21" s="0" t="n">
+      <c r="AB21" s="0" t="n">
         <v>-2810000.0</v>
       </c>
-      <c r="AB21" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AC21" s="0" t="inlineStr">
         <is>
           <t/>
@@ -2976,6 +3041,11 @@
         </is>
       </c>
       <c r="AN21" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO21" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2988,120 +3058,123 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
+        <v>190681000.0</v>
+      </c>
+      <c r="C22" s="0" t="n">
         <v>211712000.0</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="D22" s="0" t="n">
         <v>592455000.0</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="E22" s="0" t="n">
         <v>511323000.0</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="F22" s="0" t="n">
         <v>112263000.0</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="G22" s="0" t="n">
         <v>-56536000.0</v>
       </c>
-      <c r="G22" s="0" t="n">
+      <c r="H22" s="0" t="n">
         <v>-458964000.0</v>
       </c>
-      <c r="H22" s="0" t="n">
+      <c r="I22" s="0" t="n">
         <v>-119834000.0</v>
       </c>
-      <c r="I22" s="0" t="n">
+      <c r="J22" s="0" t="n">
         <v>-109611000.0</v>
       </c>
-      <c r="J22" s="0" t="n">
+      <c r="K22" s="0" t="n">
         <v>-104046000.0</v>
       </c>
-      <c r="K22" s="0" t="n">
+      <c r="L22" s="0" t="n">
         <v>450785000.0</v>
       </c>
-      <c r="L22" s="0" t="n">
+      <c r="M22" s="0" t="n">
         <v>72547000.0</v>
       </c>
-      <c r="M22" s="0" t="n">
+      <c r="N22" s="0" t="n">
         <v>125746000.0</v>
       </c>
-      <c r="N22" s="0" t="n">
+      <c r="O22" s="0" t="n">
         <v>189698000.0</v>
       </c>
-      <c r="O22" s="0" t="n">
+      <c r="P22" s="0" t="n">
         <v>-275950000.0</v>
       </c>
-      <c r="P22" s="0" t="n">
+      <c r="Q22" s="0" t="n">
         <v>48895000.0</v>
       </c>
-      <c r="Q22" s="0" t="n">
+      <c r="R22" s="0" t="n">
         <v>77781000.0</v>
       </c>
-      <c r="R22" s="0" t="n">
+      <c r="S22" s="0" t="n">
         <v>11290000.0</v>
       </c>
-      <c r="S22" s="0" t="n">
+      <c r="T22" s="0" t="n">
         <v>331003000.0</v>
       </c>
-      <c r="T22" s="0" t="n">
+      <c r="U22" s="0" t="n">
         <v>-134695000.0</v>
       </c>
-      <c r="U22" s="0" t="n">
+      <c r="V22" s="0" t="n">
         <v>-630117000.0</v>
       </c>
-      <c r="V22" s="0" t="n">
+      <c r="W22" s="0" t="n">
         <v>-478446000.0</v>
       </c>
-      <c r="W22" s="0" t="n">
+      <c r="X22" s="0" t="n">
         <v>-21659000.0</v>
       </c>
-      <c r="X22" s="0" t="n">
+      <c r="Y22" s="0" t="n">
         <v>-144053000.0</v>
       </c>
-      <c r="Y22" s="0" t="n">
+      <c r="Z22" s="0" t="n">
         <v>260792000.0</v>
       </c>
-      <c r="Z22" s="0" t="n">
+      <c r="AA22" s="0" t="n">
         <v>306705000.0</v>
       </c>
-      <c r="AA22" s="0" t="n">
+      <c r="AB22" s="0" t="n">
         <v>216440000.0</v>
       </c>
-      <c r="AB22" s="0" t="n">
+      <c r="AC22" s="0" t="n">
         <v>409272000.0</v>
       </c>
-      <c r="AC22" s="0" t="n">
+      <c r="AD22" s="0" t="n">
         <v>485398000.0</v>
       </c>
-      <c r="AD22" s="0" t="n">
+      <c r="AE22" s="0" t="n">
         <v>388254000.0</v>
       </c>
-      <c r="AE22" s="0" t="n">
+      <c r="AF22" s="0" t="n">
         <v>235000.0</v>
       </c>
-      <c r="AF22" s="0" t="n">
+      <c r="AG22" s="0" t="n">
         <v>-2312000.0</v>
       </c>
-      <c r="AG22" s="0" t="n">
+      <c r="AH22" s="0" t="n">
         <v>71794000.0</v>
       </c>
-      <c r="AH22" s="0" t="n">
+      <c r="AI22" s="0" t="n">
         <v>134255000.0</v>
       </c>
-      <c r="AI22" s="0" t="n">
+      <c r="AJ22" s="0" t="n">
         <v>110076000.0</v>
       </c>
-      <c r="AJ22" s="0" t="n">
+      <c r="AK22" s="0" t="n">
         <v>64801000.0</v>
       </c>
-      <c r="AK22" s="0" t="n">
+      <c r="AL22" s="0" t="n">
         <v>-8196000.0</v>
       </c>
-      <c r="AL22" s="0" t="n">
+      <c r="AM22" s="0" t="n">
         <v>-41807000.0</v>
       </c>
-      <c r="AM22" s="0" t="n">
+      <c r="AN22" s="0" t="n">
         <v>-56285000.0</v>
       </c>
-      <c r="AN22" s="0" t="n">
+      <c r="AO22" s="0" t="n">
         <v>-2823000.0</v>
       </c>
     </row>
@@ -3112,7 +3185,7 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
-        <v>437446000.0</v>
+        <v>649158000.0</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>437446000.0</v>
@@ -3124,7 +3197,7 @@
         <v>437446000.0</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>493982000.0</v>
+        <v>437446000.0</v>
       </c>
       <c r="G23" s="0" t="n">
         <v>493982000.0</v>
@@ -3136,7 +3209,7 @@
         <v>493982000.0</v>
       </c>
       <c r="J23" s="0" t="n">
-        <v>598028000.0</v>
+        <v>493982000.0</v>
       </c>
       <c r="K23" s="0" t="n">
         <v>598028000.0</v>
@@ -3148,7 +3221,7 @@
         <v>598028000.0</v>
       </c>
       <c r="N23" s="0" t="n">
-        <v>408330000.0</v>
+        <v>598028000.0</v>
       </c>
       <c r="O23" s="0" t="n">
         <v>408330000.0</v>
@@ -3160,7 +3233,7 @@
         <v>408330000.0</v>
       </c>
       <c r="R23" s="0" t="n">
-        <v>397040000.0</v>
+        <v>408330000.0</v>
       </c>
       <c r="S23" s="0" t="n">
         <v>397040000.0</v>
@@ -3172,7 +3245,7 @@
         <v>397040000.0</v>
       </c>
       <c r="V23" s="0" t="n">
-        <v>875486000.0</v>
+        <v>397040000.0</v>
       </c>
       <c r="W23" s="0" t="n">
         <v>875486000.0</v>
@@ -3184,7 +3257,7 @@
         <v>875486000.0</v>
       </c>
       <c r="Z23" s="0" t="n">
-        <v>568781000.0</v>
+        <v>875486000.0</v>
       </c>
       <c r="AA23" s="0" t="n">
         <v>568781000.0</v>
@@ -3196,7 +3269,7 @@
         <v>568781000.0</v>
       </c>
       <c r="AD23" s="0" t="n">
-        <v>180527000.0</v>
+        <v>568781000.0</v>
       </c>
       <c r="AE23" s="0" t="n">
         <v>180527000.0</v>
@@ -3208,7 +3281,7 @@
         <v>180527000.0</v>
       </c>
       <c r="AH23" s="0" t="n">
-        <v>46272000.0</v>
+        <v>180527000.0</v>
       </c>
       <c r="AI23" s="0" t="n">
         <v>46272000.0</v>
@@ -3220,12 +3293,15 @@
         <v>46272000.0</v>
       </c>
       <c r="AL23" s="0" t="n">
-        <v>88079000.0</v>
+        <v>46272000.0</v>
       </c>
       <c r="AM23" s="0" t="n">
         <v>88079000.0</v>
       </c>
       <c r="AN23" s="0" t="n">
+        <v>88079000.0</v>
+      </c>
+      <c r="AO23" s="0" t="n">
         <v>88079000.0</v>
       </c>
     </row>
@@ -3236,120 +3312,123 @@
         </is>
       </c>
       <c r="B24" s="0" t="n">
+        <v>839839000.0</v>
+      </c>
+      <c r="C24" s="0" t="n">
         <v>649158000.0</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="D24" s="0" t="n">
         <v>1029901000.0</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="E24" s="0" t="n">
         <v>948769000.0</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="F24" s="0" t="n">
         <v>549709000.0</v>
       </c>
-      <c r="F24" s="0" t="n">
+      <c r="G24" s="0" t="n">
         <v>437446000.0</v>
       </c>
-      <c r="G24" s="0" t="n">
+      <c r="H24" s="0" t="n">
         <v>35018000.0</v>
       </c>
-      <c r="H24" s="0" t="n">
+      <c r="I24" s="0" t="n">
         <v>374148000.0</v>
       </c>
-      <c r="I24" s="0" t="n">
+      <c r="J24" s="0" t="n">
         <v>384371000.0</v>
       </c>
-      <c r="J24" s="0" t="n">
+      <c r="K24" s="0" t="n">
         <v>493982000.0</v>
       </c>
-      <c r="K24" s="0" t="n">
+      <c r="L24" s="0" t="n">
         <v>1048813000.0</v>
       </c>
-      <c r="L24" s="0" t="n">
+      <c r="M24" s="0" t="n">
         <v>670575000.0</v>
       </c>
-      <c r="M24" s="0" t="n">
+      <c r="N24" s="0" t="n">
         <v>723774000.0</v>
       </c>
-      <c r="N24" s="0" t="n">
+      <c r="O24" s="0" t="n">
         <v>598028000.0</v>
       </c>
-      <c r="O24" s="0" t="n">
+      <c r="P24" s="0" t="n">
         <v>132380000.0</v>
       </c>
-      <c r="P24" s="0" t="n">
+      <c r="Q24" s="0" t="n">
         <v>457225000.0</v>
       </c>
-      <c r="Q24" s="0" t="n">
+      <c r="R24" s="0" t="n">
         <v>486111000.0</v>
       </c>
-      <c r="R24" s="0" t="n">
+      <c r="S24" s="0" t="n">
         <v>408330000.0</v>
       </c>
-      <c r="S24" s="0" t="n">
+      <c r="T24" s="0" t="n">
         <v>728043000.0</v>
       </c>
-      <c r="T24" s="0" t="n">
+      <c r="U24" s="0" t="n">
         <v>262345000.0</v>
       </c>
-      <c r="U24" s="0" t="n">
+      <c r="V24" s="0" t="n">
         <v>-233077000.0</v>
       </c>
-      <c r="V24" s="0" t="n">
+      <c r="W24" s="0" t="n">
         <v>397040000.0</v>
       </c>
-      <c r="W24" s="0" t="n">
+      <c r="X24" s="0" t="n">
         <v>853827000.0</v>
       </c>
-      <c r="X24" s="0" t="n">
+      <c r="Y24" s="0" t="n">
         <v>731433000.0</v>
       </c>
-      <c r="Y24" s="0" t="n">
+      <c r="Z24" s="0" t="n">
         <v>1136278000.0</v>
       </c>
-      <c r="Z24" s="0" t="n">
+      <c r="AA24" s="0" t="n">
         <v>875486000.0</v>
       </c>
-      <c r="AA24" s="0" t="n">
+      <c r="AB24" s="0" t="n">
         <v>785221000.0</v>
       </c>
-      <c r="AB24" s="0" t="n">
+      <c r="AC24" s="0" t="n">
         <v>978053000.0</v>
       </c>
-      <c r="AC24" s="0" t="n">
+      <c r="AD24" s="0" t="n">
         <v>1054179000.0</v>
       </c>
-      <c r="AD24" s="0" t="n">
+      <c r="AE24" s="0" t="n">
         <v>568781000.0</v>
       </c>
-      <c r="AE24" s="0" t="n">
+      <c r="AF24" s="0" t="n">
         <v>180762000.0</v>
       </c>
-      <c r="AF24" s="0" t="n">
+      <c r="AG24" s="0" t="n">
         <v>178215000.0</v>
       </c>
-      <c r="AG24" s="0" t="n">
+      <c r="AH24" s="0" t="n">
         <v>252321000.0</v>
       </c>
-      <c r="AH24" s="0" t="n">
+      <c r="AI24" s="0" t="n">
         <v>180527000.0</v>
       </c>
-      <c r="AI24" s="0" t="n">
+      <c r="AJ24" s="0" t="n">
         <v>156348000.0</v>
       </c>
-      <c r="AJ24" s="0" t="n">
+      <c r="AK24" s="0" t="n">
         <v>111073000.0</v>
       </c>
-      <c r="AK24" s="0" t="n">
+      <c r="AL24" s="0" t="n">
         <v>38076000.0</v>
       </c>
-      <c r="AL24" s="0" t="n">
+      <c r="AM24" s="0" t="n">
         <v>46272000.0</v>
       </c>
-      <c r="AM24" s="0" t="n">
+      <c r="AN24" s="0" t="n">
         <v>31794000.0</v>
       </c>
-      <c r="AN24" s="0" t="n">
+      <c r="AO24" s="0" t="n">
         <v>85256000.0</v>
       </c>
     </row>
@@ -3360,120 +3439,123 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
+        <v>192220000.0</v>
+      </c>
+      <c r="C25" s="0" t="n">
         <v>189711000.0</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="D25" s="0" t="n">
         <v>180227000.0</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="E25" s="0" t="n">
         <v>169231000.0</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="F25" s="0" t="n">
         <v>164098000.0</v>
       </c>
-      <c r="F25" s="0" t="n">
+      <c r="G25" s="0" t="n">
         <v>159865000.0</v>
       </c>
-      <c r="G25" s="0" t="n">
+      <c r="H25" s="0" t="n">
         <v>158321000.0</v>
       </c>
-      <c r="H25" s="0" t="n">
+      <c r="I25" s="0" t="n">
         <v>156195000.0</v>
       </c>
-      <c r="I25" s="0" t="n">
+      <c r="J25" s="0" t="n">
         <v>154972000.0</v>
       </c>
-      <c r="J25" s="0" t="n">
+      <c r="K25" s="0" t="n">
         <v>148819000.0</v>
       </c>
-      <c r="K25" s="0" t="n">
+      <c r="L25" s="0" t="n">
         <v>145846000.0</v>
       </c>
-      <c r="L25" s="0" t="n">
+      <c r="M25" s="0" t="n">
         <v>144702000.0</v>
       </c>
-      <c r="M25" s="0" t="n">
+      <c r="N25" s="0" t="n">
         <v>146197000.0</v>
       </c>
-      <c r="N25" s="0" t="n">
+      <c r="O25" s="0" t="n">
         <v>140263000.0</v>
       </c>
-      <c r="O25" s="0" t="n">
+      <c r="P25" s="0" t="n">
         <v>144099000.0</v>
       </c>
-      <c r="P25" s="0" t="n">
+      <c r="Q25" s="0" t="n">
         <v>141341000.0</v>
       </c>
-      <c r="Q25" s="0" t="n">
+      <c r="R25" s="0" t="n">
         <v>135138000.0</v>
       </c>
-      <c r="R25" s="0" t="n">
+      <c r="S25" s="0" t="n">
         <v>134641000.0</v>
       </c>
-      <c r="S25" s="0" t="n">
+      <c r="T25" s="0" t="n">
         <v>127786000.0</v>
       </c>
-      <c r="T25" s="0" t="n">
+      <c r="U25" s="0" t="n">
         <v>123399000.0</v>
       </c>
-      <c r="U25" s="0" t="n">
+      <c r="V25" s="0" t="n">
         <v>119010000.0</v>
       </c>
-      <c r="V25" s="0" t="n">
+      <c r="W25" s="0" t="n">
         <v>111525000.0</v>
       </c>
-      <c r="W25" s="0" t="n">
+      <c r="X25" s="0" t="n">
         <v>112118000.0</v>
       </c>
-      <c r="X25" s="0" t="n">
+      <c r="Y25" s="0" t="n">
         <v>103823000.0</v>
       </c>
-      <c r="Y25" s="0" t="n">
+      <c r="Z25" s="0" t="n">
         <v>91835000.0</v>
       </c>
-      <c r="Z25" s="0" t="n">
+      <c r="AA25" s="0" t="n">
         <v>86410000.0</v>
       </c>
-      <c r="AA25" s="0" t="n">
+      <c r="AB25" s="0" t="n">
         <v>76989000.0</v>
       </c>
-      <c r="AB25" s="0" t="n">
+      <c r="AC25" s="0" t="n">
         <v>73316000.0</v>
       </c>
-      <c r="AC25" s="0" t="n">
+      <c r="AD25" s="0" t="n">
         <v>70135000.0</v>
       </c>
-      <c r="AD25" s="0" t="n">
+      <c r="AE25" s="0" t="n">
         <v>64376000.0</v>
       </c>
-      <c r="AE25" s="0" t="n">
+      <c r="AF25" s="0" t="n">
         <v>54564000.0</v>
       </c>
-      <c r="AF25" s="0" t="n">
+      <c r="AG25" s="0" t="n">
         <v>49764000.0</v>
       </c>
-      <c r="AG25" s="0" t="n">
+      <c r="AH25" s="0" t="n">
         <v>47693000.0</v>
       </c>
-      <c r="AH25" s="0" t="n">
+      <c r="AI25" s="0" t="n">
         <v>47340000.0</v>
       </c>
-      <c r="AI25" s="0" t="n">
+      <c r="AJ25" s="0" t="n">
         <v>46602000.0</v>
       </c>
-      <c r="AJ25" s="0" t="n">
+      <c r="AK25" s="0" t="n">
         <v>46396000.0</v>
       </c>
-      <c r="AK25" s="0" t="n">
+      <c r="AL25" s="0" t="n">
         <v>44913000.0</v>
       </c>
-      <c r="AL25" s="0" t="n">
+      <c r="AM25" s="0" t="n">
         <v>43909000.0</v>
       </c>
-      <c r="AM25" s="0" t="n">
+      <c r="AN25" s="0" t="n">
         <v>42556000.0</v>
       </c>
-      <c r="AN25" s="0" t="n">
+      <c r="AO25" s="0" t="n">
         <v>41066000.0</v>
       </c>
     </row>
@@ -3600,6 +3682,9 @@
       <c r="AN26" s="0" t="n">
         <v>0.0</v>
       </c>
+      <c r="AO26" s="0" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="inlineStr">
@@ -3608,120 +3693,123 @@
         </is>
       </c>
       <c r="B27" s="0" t="n">
+        <v>-81815000.0</v>
+      </c>
+      <c r="C27" s="0" t="n">
         <v>-224417000.0</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="D27" s="0" t="n">
         <v>-136349000.0</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="E27" s="0" t="n">
         <v>-128040000.0</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="F27" s="0" t="n">
         <v>-157205000.0</v>
       </c>
-      <c r="F27" s="0" t="n">
+      <c r="G27" s="0" t="n">
         <v>-101092000.0</v>
       </c>
-      <c r="G27" s="0" t="n">
+      <c r="H27" s="0" t="n">
         <v>-46698000.0</v>
       </c>
-      <c r="H27" s="0" t="n">
+      <c r="I27" s="0" t="n">
         <v>-49709000.0</v>
       </c>
-      <c r="I27" s="0" t="n">
+      <c r="J27" s="0" t="n">
         <v>-61755000.0</v>
       </c>
-      <c r="J27" s="0" t="n">
+      <c r="K27" s="0" t="n">
         <v>-49420000.0</v>
       </c>
-      <c r="K27" s="0" t="n">
+      <c r="L27" s="0" t="n">
         <v>-84762000.0</v>
       </c>
-      <c r="L27" s="0" t="n">
+      <c r="M27" s="0" t="n">
         <v>-79848000.0</v>
       </c>
-      <c r="M27" s="0" t="n">
+      <c r="N27" s="0" t="n">
         <v>-50294000.0</v>
       </c>
-      <c r="N27" s="0" t="n">
+      <c r="O27" s="0" t="n">
         <v>-93963000.0</v>
       </c>
-      <c r="O27" s="0" t="n">
+      <c r="P27" s="0" t="n">
         <v>-82125000.0</v>
       </c>
-      <c r="P27" s="0" t="n">
+      <c r="Q27" s="0" t="n">
         <v>-89404000.0</v>
       </c>
-      <c r="Q27" s="0" t="n">
+      <c r="R27" s="0" t="n">
         <v>-149309000.0</v>
       </c>
-      <c r="R27" s="0" t="n">
+      <c r="S27" s="0" t="n">
         <v>-160276000.0</v>
       </c>
-      <c r="S27" s="0" t="n">
+      <c r="T27" s="0" t="n">
         <v>-79384000.0</v>
       </c>
-      <c r="T27" s="0" t="n">
+      <c r="U27" s="0" t="n">
         <v>-49024000.0</v>
       </c>
-      <c r="U27" s="0" t="n">
+      <c r="V27" s="0" t="n">
         <v>23187000.0</v>
       </c>
-      <c r="V27" s="0" t="n">
+      <c r="W27" s="0" t="n">
         <v>46332000.0</v>
       </c>
-      <c r="W27" s="0" t="n">
+      <c r="X27" s="0" t="n">
         <v>-60581000.0</v>
       </c>
-      <c r="X27" s="0" t="n">
+      <c r="Y27" s="0" t="n">
         <v>-62699000.0</v>
       </c>
-      <c r="Y27" s="0" t="n">
+      <c r="Z27" s="0" t="n">
         <v>-86515000.0</v>
       </c>
-      <c r="Z27" s="0" t="n">
+      <c r="AA27" s="0" t="n">
         <v>-15884000.0</v>
       </c>
-      <c r="AA27" s="0" t="n">
+      <c r="AB27" s="0" t="n">
         <v>-17352000.0</v>
       </c>
-      <c r="AB27" s="0" t="n">
+      <c r="AC27" s="0" t="n">
         <v>-19630000.0</v>
       </c>
-      <c r="AC27" s="0" t="n">
+      <c r="AD27" s="0" t="n">
         <v>-3060000.0</v>
       </c>
-      <c r="AD27" s="0" t="n">
+      <c r="AE27" s="0" t="n">
         <v>-8100000.0</v>
       </c>
-      <c r="AE27" s="0" t="n">
+      <c r="AF27" s="0" t="n">
         <v>5805000.0</v>
       </c>
-      <c r="AF27" s="0" t="n">
+      <c r="AG27" s="0" t="n">
         <v>1701000.0</v>
       </c>
-      <c r="AG27" s="0" t="n">
+      <c r="AH27" s="0" t="n">
         <v>8152000.0</v>
       </c>
-      <c r="AH27" s="0" t="n">
+      <c r="AI27" s="0" t="n">
         <v>33059000.0</v>
       </c>
-      <c r="AI27" s="0" t="n">
+      <c r="AJ27" s="0" t="n">
         <v>10766000.0</v>
       </c>
-      <c r="AJ27" s="0" t="n">
+      <c r="AK27" s="0" t="n">
         <v>159000.0</v>
       </c>
-      <c r="AK27" s="0" t="n">
+      <c r="AL27" s="0" t="n">
         <v>-10227000.0</v>
       </c>
-      <c r="AL27" s="0" t="n">
+      <c r="AM27" s="0" t="n">
         <v>-25437000.0</v>
       </c>
-      <c r="AM27" s="0" t="n">
+      <c r="AN27" s="0" t="n">
         <v>-57646000.0</v>
       </c>
-      <c r="AN27" s="0" t="n">
+      <c r="AO27" s="0" t="n">
         <v>-59834000.0</v>
       </c>
     </row>
@@ -3732,120 +3820,123 @@
         </is>
       </c>
       <c r="B28" s="0" t="n">
+        <v>-70960000.0</v>
+      </c>
+      <c r="C28" s="0" t="n">
         <v>26171000.0</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="D28" s="0" t="n">
         <v>-23711000.0</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="E28" s="0" t="n">
         <v>-80542000.0</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="F28" s="0" t="n">
         <v>182734000.0</v>
       </c>
-      <c r="F28" s="0" t="n">
+      <c r="G28" s="0" t="n">
         <v>108188000.0</v>
       </c>
-      <c r="G28" s="0" t="n">
+      <c r="H28" s="0" t="n">
         <v>48297000.0</v>
       </c>
-      <c r="H28" s="0" t="n">
+      <c r="I28" s="0" t="n">
         <v>429627000.0</v>
       </c>
-      <c r="I28" s="0" t="n">
+      <c r="J28" s="0" t="n">
         <v>380503000.0</v>
       </c>
-      <c r="J28" s="0" t="n">
+      <c r="K28" s="0" t="n">
         <v>358981000.0</v>
       </c>
-      <c r="K28" s="0" t="n">
+      <c r="L28" s="0" t="n">
         <v>472494000.0</v>
       </c>
-      <c r="L28" s="0" t="n">
+      <c r="M28" s="0" t="n">
         <v>-366607000.0</v>
       </c>
-      <c r="M28" s="0" t="n">
+      <c r="N28" s="0" t="n">
         <v>-366486000.0</v>
       </c>
-      <c r="N28" s="0" t="n">
+      <c r="O28" s="0" t="n">
         <v>-229487000.0</v>
       </c>
-      <c r="O28" s="0" t="n">
+      <c r="P28" s="0" t="n">
         <v>-548704000.0</v>
       </c>
-      <c r="P28" s="0" t="n">
+      <c r="Q28" s="0" t="n">
         <v>-453415000.0</v>
       </c>
-      <c r="Q28" s="0" t="n">
+      <c r="R28" s="0" t="n">
         <v>-359005000.0</v>
       </c>
-      <c r="R28" s="0" t="n">
+      <c r="S28" s="0" t="n">
         <v>-332180000.0</v>
       </c>
-      <c r="S28" s="0" t="n">
+      <c r="T28" s="0" t="n">
         <v>65024000.0</v>
       </c>
-      <c r="T28" s="0" t="n">
+      <c r="U28" s="0" t="n">
         <v>351458000.0</v>
       </c>
-      <c r="U28" s="0" t="n">
+      <c r="V28" s="0" t="n">
         <v>-161824000.0</v>
       </c>
-      <c r="V28" s="0" t="n">
+      <c r="W28" s="0" t="n">
         <v>-448471000.0</v>
       </c>
-      <c r="W28" s="0" t="n">
+      <c r="X28" s="0" t="n">
         <v>-38348000.0</v>
       </c>
-      <c r="X28" s="0" t="n">
+      <c r="Y28" s="0" t="n">
         <v>-260532000.0</v>
       </c>
-      <c r="Y28" s="0" t="n">
+      <c r="Z28" s="0" t="n">
         <v>151898000.0</v>
       </c>
-      <c r="Z28" s="0" t="n">
+      <c r="AA28" s="0" t="n">
         <v>301277000.0</v>
       </c>
-      <c r="AA28" s="0" t="n">
+      <c r="AB28" s="0" t="n">
         <v>-400809000.0</v>
       </c>
-      <c r="AB28" s="0" t="n">
+      <c r="AC28" s="0" t="n">
         <v>-156086000.0</v>
       </c>
-      <c r="AC28" s="0" t="n">
+      <c r="AD28" s="0" t="n">
         <v>-135075000.0</v>
       </c>
-      <c r="AD28" s="0" t="n">
+      <c r="AE28" s="0" t="n">
         <v>-106399000.0</v>
       </c>
-      <c r="AE28" s="0" t="n">
+      <c r="AF28" s="0" t="n">
         <v>19490000.0</v>
       </c>
-      <c r="AF28" s="0" t="n">
+      <c r="AG28" s="0" t="n">
         <v>-2959000.0</v>
       </c>
-      <c r="AG28" s="0" t="n">
+      <c r="AH28" s="0" t="n">
         <v>-168530000.0</v>
       </c>
-      <c r="AH28" s="0" t="n">
+      <c r="AI28" s="0" t="n">
         <v>-146074000.0</v>
       </c>
-      <c r="AI28" s="0" t="n">
+      <c r="AJ28" s="0" t="n">
         <v>-57850000.0</v>
       </c>
-      <c r="AJ28" s="0" t="n">
+      <c r="AK28" s="0" t="n">
         <v>-53849000.0</v>
       </c>
-      <c r="AK28" s="0" t="n">
+      <c r="AL28" s="0" t="n">
         <v>91666000.0</v>
       </c>
-      <c r="AL28" s="0" t="n">
+      <c r="AM28" s="0" t="n">
         <v>64659000.0</v>
       </c>
-      <c r="AM28" s="0" t="n">
+      <c r="AN28" s="0" t="n">
         <v>7024000.0</v>
       </c>
-      <c r="AN28" s="0" t="n">
+      <c r="AO28" s="0" t="n">
         <v>33150000.0</v>
       </c>
     </row>
@@ -3856,120 +3947,123 @@
         </is>
       </c>
       <c r="B29" s="0" t="n">
+        <v>17614000.0</v>
+      </c>
+      <c r="C29" s="0" t="n">
         <v>21913000.0</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="D29" s="0" t="n">
         <v>20111000.0</v>
       </c>
-      <c r="D29" s="0" t="n">
+      <c r="E29" s="0" t="n">
         <v>9525000.0</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="F29" s="0" t="n">
         <v>35929000.0</v>
       </c>
-      <c r="F29" s="0" t="n">
+      <c r="G29" s="0" t="n">
         <v>31611000.0</v>
       </c>
-      <c r="G29" s="0" t="n">
+      <c r="H29" s="0" t="n">
         <v>33613000.0</v>
       </c>
-      <c r="H29" s="0" t="n">
+      <c r="I29" s="0" t="n">
         <v>41575000.0</v>
       </c>
-      <c r="I29" s="0" t="n">
+      <c r="J29" s="0" t="n">
         <v>60152000.0</v>
       </c>
-      <c r="J29" s="0" t="n">
+      <c r="K29" s="0" t="n">
         <v>67488000.0</v>
       </c>
-      <c r="K29" s="0" t="n">
+      <c r="L29" s="0" t="n">
         <v>70383000.0</v>
       </c>
-      <c r="L29" s="0" t="n">
+      <c r="M29" s="0" t="n">
         <v>65126000.0</v>
       </c>
-      <c r="M29" s="0" t="n">
+      <c r="N29" s="0" t="n">
         <v>60907000.0</v>
       </c>
-      <c r="N29" s="0" t="n">
+      <c r="O29" s="0" t="n">
         <v>60859000.0</v>
       </c>
-      <c r="O29" s="0" t="n">
+      <c r="P29" s="0" t="n">
         <v>70848000.0</v>
       </c>
-      <c r="P29" s="0" t="n">
+      <c r="Q29" s="0" t="n">
         <v>804810000.0</v>
       </c>
-      <c r="Q29" s="0" t="n">
+      <c r="R29" s="0" t="n">
         <v>796730000.0</v>
       </c>
-      <c r="R29" s="0" t="n">
+      <c r="S29" s="0" t="n">
         <v>787165000.0</v>
       </c>
-      <c r="S29" s="0" t="n">
+      <c r="T29" s="0" t="n">
         <v>773966000.0</v>
       </c>
-      <c r="T29" s="0" t="n">
+      <c r="U29" s="0" t="n">
         <v>40632000.0</v>
       </c>
-      <c r="U29" s="0" t="n">
+      <c r="V29" s="0" t="n">
         <v>38540000.0</v>
       </c>
-      <c r="V29" s="0" t="n">
+      <c r="W29" s="0" t="n">
         <v>951302000.0</v>
       </c>
-      <c r="W29" s="0" t="n">
+      <c r="X29" s="0" t="n">
         <v>982041000.0</v>
       </c>
-      <c r="X29" s="0" t="n">
+      <c r="Y29" s="0" t="n">
         <v>985486000.0</v>
       </c>
-      <c r="Y29" s="0" t="n">
+      <c r="Z29" s="0" t="n">
         <v>976475000.0</v>
       </c>
-      <c r="Z29" s="0" t="n">
+      <c r="AA29" s="0" t="n">
         <v>197368000.0</v>
       </c>
-      <c r="AA29" s="0" t="n">
+      <c r="AB29" s="0" t="n">
         <v>137636000.0</v>
       </c>
-      <c r="AB29" s="0" t="n">
+      <c r="AC29" s="0" t="n">
         <v>142550000.0</v>
       </c>
-      <c r="AC29" s="0" t="n">
+      <c r="AD29" s="0" t="n">
         <v>155362000.0</v>
       </c>
-      <c r="AD29" s="0" t="n">
+      <c r="AE29" s="0" t="n">
         <v>42766000.0</v>
       </c>
-      <c r="AE29" s="0" t="n">
+      <c r="AF29" s="0" t="n">
         <v>105623000.0</v>
       </c>
-      <c r="AF29" s="0" t="n">
+      <c r="AG29" s="0" t="n">
         <v>101612000.0</v>
       </c>
-      <c r="AG29" s="0" t="n">
+      <c r="AH29" s="0" t="n">
         <v>329461000.0</v>
       </c>
-      <c r="AH29" s="0" t="n">
+      <c r="AI29" s="0" t="n">
         <v>318560000.0</v>
       </c>
-      <c r="AI29" s="0" t="n">
+      <c r="AJ29" s="0" t="n">
         <v>283322000.0</v>
       </c>
-      <c r="AJ29" s="0" t="n">
+      <c r="AK29" s="0" t="n">
         <v>284744000.0</v>
       </c>
-      <c r="AK29" s="0" t="n">
+      <c r="AL29" s="0" t="n">
         <v>44138000.0</v>
       </c>
-      <c r="AL29" s="0" t="n">
+      <c r="AM29" s="0" t="n">
         <v>33592000.0</v>
       </c>
-      <c r="AM29" s="0" t="n">
+      <c r="AN29" s="0" t="n">
         <v>36651000.0</v>
       </c>
-      <c r="AN29" s="0" t="n">
+      <c r="AO29" s="0" t="n">
         <v>31515000.0</v>
       </c>
     </row>
@@ -3980,120 +4074,123 @@
         </is>
       </c>
       <c r="B30" s="0" t="n">
+        <v>17614000.0</v>
+      </c>
+      <c r="C30" s="0" t="n">
         <v>21913000.0</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="D30" s="0" t="n">
         <v>20111000.0</v>
       </c>
-      <c r="D30" s="0" t="n">
+      <c r="E30" s="0" t="n">
         <v>9525000.0</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="F30" s="0" t="n">
         <v>35929000.0</v>
       </c>
-      <c r="F30" s="0" t="n">
+      <c r="G30" s="0" t="n">
         <v>31611000.0</v>
       </c>
-      <c r="G30" s="0" t="n">
+      <c r="H30" s="0" t="n">
         <v>33613000.0</v>
       </c>
-      <c r="H30" s="0" t="n">
+      <c r="I30" s="0" t="n">
         <v>41575000.0</v>
       </c>
-      <c r="I30" s="0" t="n">
+      <c r="J30" s="0" t="n">
         <v>60152000.0</v>
       </c>
-      <c r="J30" s="0" t="n">
+      <c r="K30" s="0" t="n">
         <v>67488000.0</v>
       </c>
-      <c r="K30" s="0" t="n">
+      <c r="L30" s="0" t="n">
         <v>70383000.0</v>
       </c>
-      <c r="L30" s="0" t="n">
+      <c r="M30" s="0" t="n">
         <v>65126000.0</v>
       </c>
-      <c r="M30" s="0" t="n">
+      <c r="N30" s="0" t="n">
         <v>60907000.0</v>
       </c>
-      <c r="N30" s="0" t="n">
+      <c r="O30" s="0" t="n">
         <v>60859000.0</v>
       </c>
-      <c r="O30" s="0" t="n">
+      <c r="P30" s="0" t="n">
         <v>70848000.0</v>
       </c>
-      <c r="P30" s="0" t="n">
+      <c r="Q30" s="0" t="n">
         <v>804810000.0</v>
       </c>
-      <c r="Q30" s="0" t="n">
+      <c r="R30" s="0" t="n">
         <v>796730000.0</v>
       </c>
-      <c r="R30" s="0" t="n">
+      <c r="S30" s="0" t="n">
         <v>787165000.0</v>
       </c>
-      <c r="S30" s="0" t="n">
+      <c r="T30" s="0" t="n">
         <v>773966000.0</v>
       </c>
-      <c r="T30" s="0" t="n">
+      <c r="U30" s="0" t="n">
         <v>40632000.0</v>
       </c>
-      <c r="U30" s="0" t="n">
+      <c r="V30" s="0" t="n">
         <v>38540000.0</v>
       </c>
-      <c r="V30" s="0" t="n">
+      <c r="W30" s="0" t="n">
         <v>951302000.0</v>
       </c>
-      <c r="W30" s="0" t="n">
+      <c r="X30" s="0" t="n">
         <v>982041000.0</v>
       </c>
-      <c r="X30" s="0" t="n">
+      <c r="Y30" s="0" t="n">
         <v>985486000.0</v>
       </c>
-      <c r="Y30" s="0" t="n">
+      <c r="Z30" s="0" t="n">
         <v>976475000.0</v>
       </c>
-      <c r="Z30" s="0" t="n">
+      <c r="AA30" s="0" t="n">
         <v>197368000.0</v>
       </c>
-      <c r="AA30" s="0" t="n">
+      <c r="AB30" s="0" t="n">
         <v>137636000.0</v>
       </c>
-      <c r="AB30" s="0" t="n">
+      <c r="AC30" s="0" t="n">
         <v>142550000.0</v>
       </c>
-      <c r="AC30" s="0" t="n">
+      <c r="AD30" s="0" t="n">
         <v>155362000.0</v>
       </c>
-      <c r="AD30" s="0" t="n">
+      <c r="AE30" s="0" t="n">
         <v>42766000.0</v>
       </c>
-      <c r="AE30" s="0" t="n">
+      <c r="AF30" s="0" t="n">
         <v>105623000.0</v>
       </c>
-      <c r="AF30" s="0" t="n">
+      <c r="AG30" s="0" t="n">
         <v>101612000.0</v>
       </c>
-      <c r="AG30" s="0" t="n">
+      <c r="AH30" s="0" t="n">
         <v>329461000.0</v>
       </c>
-      <c r="AH30" s="0" t="n">
+      <c r="AI30" s="0" t="n">
         <v>318560000.0</v>
       </c>
-      <c r="AI30" s="0" t="n">
+      <c r="AJ30" s="0" t="n">
         <v>283322000.0</v>
       </c>
-      <c r="AJ30" s="0" t="n">
+      <c r="AK30" s="0" t="n">
         <v>284744000.0</v>
       </c>
-      <c r="AK30" s="0" t="n">
+      <c r="AL30" s="0" t="n">
         <v>44138000.0</v>
       </c>
-      <c r="AL30" s="0" t="n">
+      <c r="AM30" s="0" t="n">
         <v>33592000.0</v>
       </c>
-      <c r="AM30" s="0" t="n">
+      <c r="AN30" s="0" t="n">
         <v>36651000.0</v>
       </c>
-      <c r="AN30" s="0" t="n">
+      <c r="AO30" s="0" t="n">
         <v>31515000.0</v>
       </c>
     </row>
